--- a/src/features/personal-data-sheet/defaultPDS.xlsx
+++ b/src/features/personal-data-sheet/defaultPDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LittleWarMachine\Documents\GitHub\hris\src\features\personal-data-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42808510-2D92-4DE3-AE88-A6BD508BAD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71291B-18EB-4683-A5A9-A740D213BB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1277,7 +1277,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0_);\(0.0\)"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1532,6 +1532,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2569,7 +2575,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="682">
+  <cellXfs count="684">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3251,14 +3257,544 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3271,9 +3807,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3291,14 +3824,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3310,14 +3835,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3334,505 +3851,179 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3846,12 +4037,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3862,42 +4047,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -3916,18 +4073,6 @@
     <xf numFmtId="49" fontId="21" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3935,6 +4080,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3961,25 +4109,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4009,107 +4142,405 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4127,36 +4558,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4166,433 +4589,18 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9788,8 +9796,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9814,20 +9822,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="342"/>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="344"/>
+      <c r="A1" s="297"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="299"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="139"/>
@@ -9857,58 +9865,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="681" t="s">
+      <c r="A3" s="300" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="346"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="302"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="680" t="s">
+      <c r="A4" s="337" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="317"/>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="317"/>
-      <c r="N4" s="318"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="339"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="679" t="s">
+      <c r="A5" s="350" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="326"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="327"/>
+      <c r="B5" s="351"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="351"/>
+      <c r="I5" s="351"/>
+      <c r="J5" s="351"/>
+      <c r="K5" s="351"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="351"/>
+      <c r="N5" s="352"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="225"/>
@@ -9927,7 +9935,7 @@
       <c r="N6" s="228"/>
     </row>
     <row r="7" spans="1:18" s="229" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="678" t="s">
+      <c r="A7" s="258" t="s">
         <v>345</v>
       </c>
       <c r="B7" s="182"/>
@@ -9942,11 +9950,11 @@
       <c r="K7" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="349" t="s">
+      <c r="L7" s="306" t="s">
         <v>336</v>
       </c>
-      <c r="M7" s="350"/>
-      <c r="N7" s="351"/>
+      <c r="M7" s="307"/>
+      <c r="N7" s="308"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="230"/>
@@ -9965,65 +9973,65 @@
       <c r="N8" s="103"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="677" t="s">
+      <c r="A9" s="303" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="347"/>
-      <c r="C9" s="347"/>
-      <c r="D9" s="347"/>
-      <c r="E9" s="347"/>
-      <c r="F9" s="347"/>
-      <c r="G9" s="347"/>
-      <c r="H9" s="347"/>
-      <c r="I9" s="347"/>
-      <c r="J9" s="347"/>
-      <c r="K9" s="347"/>
-      <c r="L9" s="347"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="348"/>
+      <c r="B9" s="304"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="304"/>
+      <c r="E9" s="304"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="304"/>
+      <c r="H9" s="304"/>
+      <c r="I9" s="304"/>
+      <c r="J9" s="304"/>
+      <c r="K9" s="304"/>
+      <c r="L9" s="304"/>
+      <c r="M9" s="304"/>
+      <c r="N9" s="305"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="664" t="s">
+      <c r="A10" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="365" t="s">
+      <c r="B10" s="326" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="358"/>
-      <c r="L10" s="358"/>
-      <c r="M10" s="358"/>
-      <c r="N10" s="359"/>
+      <c r="C10" s="327"/>
+      <c r="D10" s="317"/>
+      <c r="E10" s="317"/>
+      <c r="F10" s="317"/>
+      <c r="G10" s="317"/>
+      <c r="H10" s="317"/>
+      <c r="I10" s="317"/>
+      <c r="J10" s="317"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="317"/>
+      <c r="M10" s="317"/>
+      <c r="N10" s="318"/>
       <c r="P10" s="229" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="664"/>
-      <c r="B11" s="366" t="s">
+      <c r="A11" s="252"/>
+      <c r="B11" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="367"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="288" t="s">
+      <c r="C11" s="329"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="336"/>
+      <c r="H11" s="336"/>
+      <c r="I11" s="336"/>
+      <c r="J11" s="336"/>
+      <c r="K11" s="413"/>
+      <c r="L11" s="372" t="s">
         <v>360</v>
       </c>
-      <c r="M11" s="289"/>
-      <c r="N11" s="290"/>
+      <c r="M11" s="373"/>
+      <c r="N11" s="374"/>
       <c r="P11" s="223" t="s">
         <v>48</v>
       </c>
@@ -10032,22 +10040,22 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="676"/>
-      <c r="B12" s="368" t="s">
+      <c r="A12" s="257"/>
+      <c r="B12" s="330" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="369"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="275"/>
-      <c r="N12" s="276"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="415"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="415"/>
+      <c r="H12" s="415"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
+      <c r="L12" s="399"/>
+      <c r="M12" s="399"/>
+      <c r="N12" s="400"/>
       <c r="P12" s="223" t="s">
         <v>105</v>
       </c>
@@ -10056,26 +10064,26 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="675" t="s">
+      <c r="A13" s="256" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="286" t="s">
+      <c r="B13" s="411" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="292"/>
+      <c r="C13" s="327"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="375"/>
+      <c r="F13" s="376"/>
       <c r="G13" s="86" t="s">
         <v>350</v>
       </c>
       <c r="H13" s="216"/>
       <c r="I13" s="216"/>
-      <c r="J13" s="298"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="300"/>
+      <c r="J13" s="382"/>
+      <c r="K13" s="383"/>
+      <c r="L13" s="383"/>
+      <c r="M13" s="383"/>
+      <c r="N13" s="384"/>
       <c r="P13" s="223" t="s">
         <v>49</v>
       </c>
@@ -10084,7 +10092,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="664"/>
+      <c r="A14" s="252"/>
       <c r="B14" s="220"/>
       <c r="C14" s="220"/>
       <c r="D14" s="188"/>
@@ -10101,28 +10109,28 @@
       <c r="Q14" s="232"/>
     </row>
     <row r="15" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="665" t="s">
+      <c r="A15" s="253" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="82" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="82"/>
-      <c r="D15" s="338"/>
-      <c r="E15" s="338"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="296" t="s">
+      <c r="D15" s="370"/>
+      <c r="E15" s="370"/>
+      <c r="F15" s="371"/>
+      <c r="G15" s="380" t="s">
         <v>364</v>
       </c>
-      <c r="H15" s="297"/>
-      <c r="I15" s="297"/>
+      <c r="H15" s="381"/>
+      <c r="I15" s="381"/>
       <c r="J15" s="236"/>
       <c r="K15" s="237"/>
-      <c r="L15" s="302" t="s">
+      <c r="L15" s="386" t="s">
         <v>370</v>
       </c>
-      <c r="M15" s="302"/>
-      <c r="N15" s="303"/>
+      <c r="M15" s="386"/>
+      <c r="N15" s="387"/>
       <c r="P15" s="223" t="s">
         <v>106</v>
       </c>
@@ -10131,21 +10139,21 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="674" t="s">
+      <c r="A16" s="255" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="83"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="361"/>
-      <c r="G16" s="293" t="s">
+      <c r="D16" s="319"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="377" t="s">
         <v>302</v>
       </c>
-      <c r="H16" s="294"/>
-      <c r="I16" s="295"/>
+      <c r="H16" s="378"/>
+      <c r="I16" s="379"/>
       <c r="J16" s="102"/>
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
@@ -10159,55 +10167,55 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="673">
+      <c r="A17" s="367">
         <v>6</v>
       </c>
-      <c r="B17" s="282" t="s">
+      <c r="B17" s="407" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="283"/>
-      <c r="D17" s="280"/>
-      <c r="E17" s="280"/>
-      <c r="F17" s="280"/>
+      <c r="C17" s="408"/>
+      <c r="D17" s="406"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
       <c r="G17" s="87" t="s">
         <v>351</v>
       </c>
       <c r="H17" s="88"/>
-      <c r="I17" s="313"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="304"/>
-      <c r="L17" s="304"/>
-      <c r="M17" s="304"/>
-      <c r="N17" s="305"/>
+      <c r="I17" s="286"/>
+      <c r="J17" s="287"/>
+      <c r="K17" s="287"/>
+      <c r="L17" s="287"/>
+      <c r="M17" s="287"/>
+      <c r="N17" s="288"/>
       <c r="Q17" s="232" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="670"/>
-      <c r="B18" s="284"/>
-      <c r="C18" s="285"/>
-      <c r="D18" s="281"/>
-      <c r="E18" s="281"/>
-      <c r="F18" s="281"/>
+      <c r="A18" s="368"/>
+      <c r="B18" s="409"/>
+      <c r="C18" s="410"/>
+      <c r="D18" s="324"/>
+      <c r="E18" s="324"/>
+      <c r="F18" s="324"/>
       <c r="G18" s="138"/>
       <c r="H18" s="89"/>
-      <c r="I18" s="306" t="s">
+      <c r="I18" s="388" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="307"/>
-      <c r="K18" s="307"/>
-      <c r="L18" s="307" t="s">
+      <c r="J18" s="353"/>
+      <c r="K18" s="353"/>
+      <c r="L18" s="353" t="s">
         <v>331</v>
       </c>
-      <c r="M18" s="307"/>
-      <c r="N18" s="308"/>
+      <c r="M18" s="353"/>
+      <c r="N18" s="354"/>
       <c r="Q18" s="232" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="672"/>
+      <c r="A19" s="254"/>
       <c r="B19" s="183"/>
       <c r="C19" s="212"/>
       <c r="D19" s="210"/>
@@ -10215,367 +10223,367 @@
       <c r="F19" s="210"/>
       <c r="G19" s="138"/>
       <c r="H19" s="89"/>
-      <c r="I19" s="328"/>
-      <c r="J19" s="329"/>
-      <c r="K19" s="329"/>
-      <c r="L19" s="332"/>
-      <c r="M19" s="329"/>
-      <c r="N19" s="333"/>
+      <c r="I19" s="355"/>
+      <c r="J19" s="356"/>
+      <c r="K19" s="356"/>
+      <c r="L19" s="359"/>
+      <c r="M19" s="356"/>
+      <c r="N19" s="360"/>
       <c r="Q19" s="232" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="670"/>
+      <c r="A20" s="368"/>
       <c r="B20" s="183"/>
       <c r="C20" s="123"/>
       <c r="D20" s="124"/>
-      <c r="E20" s="281"/>
-      <c r="F20" s="281"/>
+      <c r="E20" s="324"/>
+      <c r="F20" s="324"/>
       <c r="G20" s="137"/>
       <c r="H20" s="217"/>
-      <c r="I20" s="330"/>
-      <c r="J20" s="331"/>
-      <c r="K20" s="331"/>
-      <c r="L20" s="331"/>
-      <c r="M20" s="331"/>
-      <c r="N20" s="334"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="358"/>
+      <c r="K20" s="358"/>
+      <c r="L20" s="358"/>
+      <c r="M20" s="358"/>
+      <c r="N20" s="361"/>
       <c r="Q20" s="232" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="671"/>
+      <c r="A21" s="369"/>
       <c r="B21" s="184"/>
       <c r="C21" s="121"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="364"/>
+      <c r="E21" s="325"/>
+      <c r="F21" s="325"/>
       <c r="G21" s="137"/>
       <c r="H21" s="217"/>
-      <c r="I21" s="335" t="s">
+      <c r="I21" s="362" t="s">
         <v>328</v>
       </c>
-      <c r="J21" s="336"/>
-      <c r="K21" s="336"/>
-      <c r="L21" s="375" t="s">
+      <c r="J21" s="363"/>
+      <c r="K21" s="363"/>
+      <c r="L21" s="283" t="s">
         <v>329</v>
       </c>
-      <c r="M21" s="376"/>
-      <c r="N21" s="377"/>
+      <c r="M21" s="284"/>
+      <c r="N21" s="285"/>
       <c r="Q21" s="232" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="668" t="s">
+      <c r="A22" s="404" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="269" t="s">
+      <c r="B22" s="395" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="270"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="430"/>
+      <c r="E22" s="430"/>
+      <c r="F22" s="430"/>
       <c r="G22" s="137"/>
       <c r="H22" s="217"/>
-      <c r="I22" s="313"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="304"/>
-      <c r="L22" s="304"/>
-      <c r="M22" s="304"/>
-      <c r="N22" s="305"/>
+      <c r="I22" s="286"/>
+      <c r="J22" s="287"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="287"/>
+      <c r="M22" s="287"/>
+      <c r="N22" s="288"/>
       <c r="Q22" s="232" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="669"/>
-      <c r="B23" s="271"/>
-      <c r="C23" s="272"/>
-      <c r="D23" s="268"/>
-      <c r="E23" s="268"/>
-      <c r="F23" s="268"/>
+      <c r="A23" s="405"/>
+      <c r="B23" s="397"/>
+      <c r="C23" s="398"/>
+      <c r="D23" s="366"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="366"/>
       <c r="G23" s="137"/>
       <c r="H23" s="217"/>
-      <c r="I23" s="380" t="s">
+      <c r="I23" s="291" t="s">
         <v>339</v>
       </c>
-      <c r="J23" s="381"/>
-      <c r="K23" s="381"/>
-      <c r="L23" s="378" t="s">
+      <c r="J23" s="292"/>
+      <c r="K23" s="292"/>
+      <c r="L23" s="289" t="s">
         <v>330</v>
       </c>
-      <c r="M23" s="378"/>
-      <c r="N23" s="379"/>
+      <c r="M23" s="289"/>
+      <c r="N23" s="290"/>
       <c r="Q23" s="232" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="664" t="s">
+      <c r="A24" s="252" t="s">
         <v>311</v>
       </c>
-      <c r="B24" s="273" t="s">
+      <c r="B24" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="274"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="370" t="s">
+      <c r="C24" s="334"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="336"/>
+      <c r="G24" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="H24" s="371"/>
-      <c r="I24" s="314"/>
-      <c r="J24" s="315"/>
-      <c r="K24" s="315"/>
-      <c r="L24" s="315"/>
-      <c r="M24" s="315"/>
-      <c r="N24" s="316"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="340"/>
+      <c r="J24" s="341"/>
+      <c r="K24" s="341"/>
+      <c r="L24" s="341"/>
+      <c r="M24" s="341"/>
+      <c r="N24" s="342"/>
       <c r="Q24" s="232" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="666" t="s">
+      <c r="A25" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="269" t="s">
+      <c r="B25" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="270"/>
-      <c r="D25" s="337"/>
-      <c r="E25" s="337"/>
-      <c r="F25" s="337"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="323"/>
+      <c r="E25" s="323"/>
+      <c r="F25" s="323"/>
       <c r="G25" s="93" t="s">
         <v>352</v>
       </c>
       <c r="H25" s="213"/>
-      <c r="I25" s="313"/>
-      <c r="J25" s="304"/>
-      <c r="K25" s="304"/>
-      <c r="L25" s="304"/>
-      <c r="M25" s="304"/>
-      <c r="N25" s="305"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="288"/>
       <c r="Q25" s="232" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="667"/>
-      <c r="B26" s="271"/>
-      <c r="C26" s="272"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="268"/>
+      <c r="A26" s="365"/>
+      <c r="B26" s="397"/>
+      <c r="C26" s="398"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="366"/>
       <c r="G26" s="137"/>
       <c r="H26" s="217"/>
-      <c r="I26" s="306" t="s">
+      <c r="I26" s="388" t="s">
         <v>332</v>
       </c>
-      <c r="J26" s="307"/>
-      <c r="K26" s="307"/>
-      <c r="L26" s="307" t="s">
+      <c r="J26" s="353"/>
+      <c r="K26" s="353"/>
+      <c r="L26" s="353" t="s">
         <v>331</v>
       </c>
-      <c r="M26" s="307"/>
-      <c r="N26" s="308"/>
+      <c r="M26" s="353"/>
+      <c r="N26" s="354"/>
       <c r="Q26" s="232" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="666" t="s">
+      <c r="A27" s="364" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="269" t="s">
+      <c r="B27" s="395" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="270"/>
-      <c r="D27" s="337"/>
-      <c r="E27" s="337"/>
-      <c r="F27" s="337"/>
+      <c r="C27" s="396"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="323"/>
       <c r="G27" s="138"/>
       <c r="H27" s="89"/>
-      <c r="I27" s="313"/>
-      <c r="J27" s="304"/>
-      <c r="K27" s="304"/>
-      <c r="L27" s="304"/>
-      <c r="M27" s="304"/>
-      <c r="N27" s="305"/>
+      <c r="I27" s="286"/>
+      <c r="J27" s="287"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="288"/>
       <c r="Q27" s="232" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="667"/>
-      <c r="B28" s="271"/>
-      <c r="C28" s="272"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
+      <c r="A28" s="365"/>
+      <c r="B28" s="397"/>
+      <c r="C28" s="398"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
       <c r="G28" s="138"/>
       <c r="H28" s="89"/>
-      <c r="I28" s="309" t="s">
+      <c r="I28" s="389" t="s">
         <v>328</v>
       </c>
-      <c r="J28" s="310"/>
-      <c r="K28" s="310"/>
-      <c r="L28" s="311" t="s">
+      <c r="J28" s="390"/>
+      <c r="K28" s="390"/>
+      <c r="L28" s="391" t="s">
         <v>329</v>
       </c>
-      <c r="M28" s="310"/>
-      <c r="N28" s="312"/>
+      <c r="M28" s="390"/>
+      <c r="N28" s="392"/>
       <c r="Q28" s="232" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="666" t="s">
+      <c r="A29" s="364" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269" t="s">
+      <c r="B29" s="395" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="270"/>
-      <c r="D29" s="337"/>
-      <c r="E29" s="337"/>
-      <c r="F29" s="337"/>
+      <c r="C29" s="396"/>
+      <c r="D29" s="323"/>
+      <c r="E29" s="323"/>
+      <c r="F29" s="323"/>
       <c r="G29" s="138"/>
       <c r="H29" s="179"/>
-      <c r="I29" s="248"/>
-      <c r="J29" s="249"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="249"/>
-      <c r="M29" s="249"/>
-      <c r="N29" s="250"/>
+      <c r="I29" s="416"/>
+      <c r="J29" s="417"/>
+      <c r="K29" s="417"/>
+      <c r="L29" s="417"/>
+      <c r="M29" s="417"/>
+      <c r="N29" s="418"/>
       <c r="Q29" s="232" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="667"/>
-      <c r="B30" s="271"/>
-      <c r="C30" s="272"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
+      <c r="A30" s="365"/>
+      <c r="B30" s="397"/>
+      <c r="C30" s="398"/>
+      <c r="D30" s="366"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="366"/>
       <c r="G30" s="138"/>
       <c r="H30" s="179"/>
-      <c r="I30" s="382" t="s">
+      <c r="I30" s="293" t="s">
         <v>339</v>
       </c>
-      <c r="J30" s="382"/>
-      <c r="K30" s="381"/>
-      <c r="L30" s="382" t="s">
+      <c r="J30" s="293"/>
+      <c r="K30" s="292"/>
+      <c r="L30" s="293" t="s">
         <v>330</v>
       </c>
-      <c r="M30" s="382"/>
-      <c r="N30" s="383"/>
+      <c r="M30" s="293"/>
+      <c r="N30" s="294"/>
       <c r="Q30" s="232" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="665" t="s">
+      <c r="A31" s="253" t="s">
         <v>312</v>
       </c>
       <c r="B31" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="83"/>
-      <c r="D31" s="301"/>
-      <c r="E31" s="301"/>
-      <c r="F31" s="301"/>
-      <c r="G31" s="370" t="s">
+      <c r="D31" s="385"/>
+      <c r="E31" s="385"/>
+      <c r="F31" s="385"/>
+      <c r="G31" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="252"/>
-      <c r="N31" s="253"/>
+      <c r="H31" s="277"/>
+      <c r="I31" s="419"/>
+      <c r="J31" s="420"/>
+      <c r="K31" s="420"/>
+      <c r="L31" s="420"/>
+      <c r="M31" s="420"/>
+      <c r="N31" s="421"/>
       <c r="Q31" s="232" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="664" t="s">
+      <c r="A32" s="252" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="82" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="83"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
+      <c r="D32" s="336"/>
+      <c r="E32" s="336"/>
+      <c r="F32" s="336"/>
       <c r="G32" s="219" t="s">
         <v>353</v>
       </c>
       <c r="H32" s="215"/>
-      <c r="I32" s="314"/>
-      <c r="J32" s="315"/>
-      <c r="K32" s="374"/>
-      <c r="L32" s="315"/>
-      <c r="M32" s="315"/>
-      <c r="N32" s="316"/>
+      <c r="I32" s="340"/>
+      <c r="J32" s="341"/>
+      <c r="K32" s="393"/>
+      <c r="L32" s="341"/>
+      <c r="M32" s="341"/>
+      <c r="N32" s="342"/>
       <c r="Q32" s="232" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="663" t="s">
+      <c r="A33" s="333" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="274"/>
-      <c r="C33" s="373"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
       <c r="G33" s="178" t="s">
         <v>354</v>
       </c>
       <c r="H33" s="238"/>
-      <c r="I33" s="314"/>
-      <c r="J33" s="315"/>
-      <c r="K33" s="315"/>
-      <c r="L33" s="315"/>
-      <c r="M33" s="315"/>
-      <c r="N33" s="316"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="341"/>
+      <c r="K33" s="341"/>
+      <c r="L33" s="341"/>
+      <c r="M33" s="341"/>
+      <c r="N33" s="342"/>
       <c r="Q33" s="232" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="662" t="s">
+      <c r="A34" s="251" t="s">
         <v>349</v>
       </c>
       <c r="B34" s="211"/>
       <c r="C34" s="239"/>
-      <c r="D34" s="337"/>
-      <c r="E34" s="337"/>
-      <c r="F34" s="337"/>
+      <c r="D34" s="323"/>
+      <c r="E34" s="323"/>
+      <c r="F34" s="323"/>
       <c r="G34" s="93" t="s">
         <v>355</v>
       </c>
       <c r="H34" s="213"/>
-      <c r="I34" s="319"/>
-      <c r="J34" s="320"/>
-      <c r="K34" s="320"/>
-      <c r="L34" s="320"/>
-      <c r="M34" s="320"/>
-      <c r="N34" s="321"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="344"/>
+      <c r="K34" s="344"/>
+      <c r="L34" s="344"/>
+      <c r="M34" s="344"/>
+      <c r="N34" s="345"/>
       <c r="Q34" s="232" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="661" t="s">
+      <c r="A35" s="250" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="221"/>
@@ -10596,311 +10604,311 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="660" t="s">
+      <c r="A36" s="249" t="s">
         <v>356</v>
       </c>
       <c r="B36" s="186" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="187"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="265"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="265"/>
-      <c r="H36" s="265"/>
-      <c r="I36" s="322" t="s">
+      <c r="D36" s="429"/>
+      <c r="E36" s="429"/>
+      <c r="F36" s="429"/>
+      <c r="G36" s="429"/>
+      <c r="H36" s="429"/>
+      <c r="I36" s="346" t="s">
         <v>357</v>
       </c>
-      <c r="J36" s="322"/>
-      <c r="K36" s="322"/>
-      <c r="L36" s="323"/>
-      <c r="M36" s="354" t="s">
+      <c r="J36" s="346"/>
+      <c r="K36" s="346"/>
+      <c r="L36" s="347"/>
+      <c r="M36" s="311" t="s">
         <v>100</v>
       </c>
-      <c r="N36" s="355"/>
+      <c r="N36" s="312"/>
       <c r="Q36" s="232" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="654"/>
+      <c r="A37" s="243"/>
       <c r="B37" s="89" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="179"/>
-      <c r="D37" s="277"/>
-      <c r="E37" s="254"/>
-      <c r="F37" s="255"/>
-      <c r="G37" s="372" t="s">
+      <c r="D37" s="278"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="280"/>
+      <c r="G37" s="262" t="s">
         <v>360</v>
       </c>
-      <c r="H37" s="372"/>
-      <c r="I37" s="254"/>
-      <c r="J37" s="254"/>
-      <c r="K37" s="254"/>
-      <c r="L37" s="255"/>
-      <c r="M37" s="259"/>
-      <c r="N37" s="260"/>
+      <c r="H37" s="262"/>
+      <c r="I37" s="279"/>
+      <c r="J37" s="279"/>
+      <c r="K37" s="279"/>
+      <c r="L37" s="280"/>
+      <c r="M37" s="281"/>
+      <c r="N37" s="282"/>
       <c r="Q37" s="232" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="656"/>
+      <c r="A38" s="245"/>
       <c r="B38" s="181" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="180"/>
-      <c r="D38" s="277"/>
-      <c r="E38" s="254"/>
-      <c r="F38" s="254"/>
-      <c r="G38" s="324"/>
-      <c r="H38" s="325"/>
-      <c r="I38" s="254"/>
-      <c r="J38" s="254"/>
-      <c r="K38" s="254"/>
-      <c r="L38" s="255"/>
-      <c r="M38" s="259"/>
-      <c r="N38" s="260"/>
+      <c r="D38" s="278"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="348"/>
+      <c r="H38" s="349"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
+      <c r="K38" s="279"/>
+      <c r="L38" s="280"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="282"/>
       <c r="Q38" s="232" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="659"/>
+      <c r="A39" s="248"/>
       <c r="B39" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="83"/>
-      <c r="D39" s="266"/>
-      <c r="E39" s="266"/>
-      <c r="F39" s="266"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="266"/>
-      <c r="I39" s="254"/>
-      <c r="J39" s="254"/>
-      <c r="K39" s="254"/>
-      <c r="L39" s="255"/>
-      <c r="M39" s="259"/>
-      <c r="N39" s="260"/>
+      <c r="D39" s="403"/>
+      <c r="E39" s="403"/>
+      <c r="F39" s="403"/>
+      <c r="G39" s="403"/>
+      <c r="H39" s="403"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
+      <c r="K39" s="279"/>
+      <c r="L39" s="280"/>
+      <c r="M39" s="281"/>
+      <c r="N39" s="282"/>
       <c r="Q39" s="232" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="659"/>
+      <c r="A40" s="248"/>
       <c r="B40" s="82" t="s">
         <v>346</v>
       </c>
       <c r="C40" s="83"/>
-      <c r="D40" s="266"/>
-      <c r="E40" s="266"/>
-      <c r="F40" s="266"/>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="254"/>
-      <c r="L40" s="255"/>
-      <c r="M40" s="259"/>
-      <c r="N40" s="260"/>
+      <c r="D40" s="403"/>
+      <c r="E40" s="403"/>
+      <c r="F40" s="403"/>
+      <c r="G40" s="403"/>
+      <c r="H40" s="403"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
+      <c r="K40" s="279"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="281"/>
+      <c r="N40" s="282"/>
       <c r="Q40" s="232" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="659"/>
+      <c r="A41" s="248"/>
       <c r="B41" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="83"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="266"/>
-      <c r="F41" s="266"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="254"/>
-      <c r="J41" s="254"/>
-      <c r="K41" s="254"/>
-      <c r="L41" s="255"/>
-      <c r="M41" s="259"/>
-      <c r="N41" s="260"/>
+      <c r="D41" s="403"/>
+      <c r="E41" s="403"/>
+      <c r="F41" s="403"/>
+      <c r="G41" s="403"/>
+      <c r="H41" s="403"/>
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
+      <c r="K41" s="279"/>
+      <c r="L41" s="280"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="282"/>
       <c r="Q41" s="232" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="658"/>
+      <c r="A42" s="247"/>
       <c r="B42" s="88" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="122"/>
-      <c r="D42" s="266"/>
-      <c r="E42" s="266"/>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="254"/>
-      <c r="J42" s="254"/>
-      <c r="K42" s="254"/>
-      <c r="L42" s="255"/>
-      <c r="M42" s="259"/>
-      <c r="N42" s="260"/>
+      <c r="D42" s="403"/>
+      <c r="E42" s="403"/>
+      <c r="F42" s="403"/>
+      <c r="G42" s="403"/>
+      <c r="H42" s="403"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
+      <c r="K42" s="279"/>
+      <c r="L42" s="280"/>
+      <c r="M42" s="281"/>
+      <c r="N42" s="282"/>
       <c r="Q42" s="232" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="657" t="s">
+      <c r="A43" s="246" t="s">
         <v>358</v>
       </c>
       <c r="B43" s="185" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="88"/>
-      <c r="D43" s="384"/>
-      <c r="E43" s="384"/>
-      <c r="F43" s="384"/>
-      <c r="G43" s="384"/>
-      <c r="H43" s="384"/>
-      <c r="I43" s="254"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="254"/>
-      <c r="L43" s="255"/>
-      <c r="M43" s="259"/>
-      <c r="N43" s="260"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="260"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="279"/>
+      <c r="J43" s="279"/>
+      <c r="K43" s="279"/>
+      <c r="L43" s="280"/>
+      <c r="M43" s="281"/>
+      <c r="N43" s="282"/>
       <c r="Q43" s="232" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="654"/>
+      <c r="A44" s="243"/>
       <c r="B44" s="217" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="217"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="254"/>
-      <c r="F44" s="255"/>
-      <c r="G44" s="372" t="s">
+      <c r="D44" s="278"/>
+      <c r="E44" s="279"/>
+      <c r="F44" s="280"/>
+      <c r="G44" s="262" t="s">
         <v>360</v>
       </c>
-      <c r="H44" s="372"/>
-      <c r="I44" s="254"/>
-      <c r="J44" s="254"/>
-      <c r="K44" s="254"/>
-      <c r="L44" s="255"/>
-      <c r="M44" s="259"/>
-      <c r="N44" s="260"/>
+      <c r="H44" s="262"/>
+      <c r="I44" s="279"/>
+      <c r="J44" s="279"/>
+      <c r="K44" s="279"/>
+      <c r="L44" s="280"/>
+      <c r="M44" s="281"/>
+      <c r="N44" s="282"/>
       <c r="Q44" s="232" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="656"/>
+      <c r="A45" s="245"/>
       <c r="B45" s="214" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="214"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="254"/>
-      <c r="F45" s="254"/>
-      <c r="G45" s="278"/>
-      <c r="H45" s="279"/>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="254"/>
-      <c r="L45" s="255"/>
-      <c r="M45" s="259"/>
-      <c r="N45" s="260"/>
+      <c r="D45" s="278"/>
+      <c r="E45" s="279"/>
+      <c r="F45" s="279"/>
+      <c r="G45" s="401"/>
+      <c r="H45" s="402"/>
+      <c r="I45" s="279"/>
+      <c r="J45" s="279"/>
+      <c r="K45" s="279"/>
+      <c r="L45" s="280"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="Q45" s="232" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="654" t="s">
+      <c r="A46" s="243" t="s">
         <v>313</v>
       </c>
       <c r="B46" s="217" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="89"/>
-      <c r="D46" s="385"/>
-      <c r="E46" s="385"/>
-      <c r="F46" s="385"/>
-      <c r="G46" s="385"/>
-      <c r="H46" s="385"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="254"/>
-      <c r="K46" s="254"/>
-      <c r="L46" s="255"/>
-      <c r="M46" s="259"/>
-      <c r="N46" s="260"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="261"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="261"/>
+      <c r="I46" s="279"/>
+      <c r="J46" s="279"/>
+      <c r="K46" s="279"/>
+      <c r="L46" s="280"/>
+      <c r="M46" s="281"/>
+      <c r="N46" s="282"/>
       <c r="Q46" s="232" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="654"/>
+      <c r="A47" s="243"/>
       <c r="B47" s="217" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="217"/>
-      <c r="D47" s="385"/>
-      <c r="E47" s="385"/>
-      <c r="F47" s="385"/>
-      <c r="G47" s="385"/>
-      <c r="H47" s="385"/>
-      <c r="I47" s="254"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="254"/>
-      <c r="L47" s="255"/>
-      <c r="M47" s="259"/>
-      <c r="N47" s="260"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="261"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="261"/>
+      <c r="I47" s="279"/>
+      <c r="J47" s="279"/>
+      <c r="K47" s="279"/>
+      <c r="L47" s="280"/>
+      <c r="M47" s="281"/>
+      <c r="N47" s="282"/>
       <c r="Q47" s="232" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="654"/>
+      <c r="A48" s="243"/>
       <c r="B48" s="217" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="217"/>
-      <c r="D48" s="385"/>
-      <c r="E48" s="385"/>
-      <c r="F48" s="385"/>
-      <c r="G48" s="385"/>
-      <c r="H48" s="385"/>
-      <c r="I48" s="254"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="254"/>
-      <c r="L48" s="255"/>
-      <c r="M48" s="259"/>
-      <c r="N48" s="260"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="261"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="261"/>
+      <c r="I48" s="279"/>
+      <c r="J48" s="279"/>
+      <c r="K48" s="279"/>
+      <c r="L48" s="280"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="282"/>
       <c r="Q48" s="232" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="655"/>
+      <c r="A49" s="244"/>
       <c r="B49" s="218" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="218"/>
-      <c r="D49" s="258"/>
-      <c r="E49" s="258"/>
-      <c r="F49" s="258"/>
-      <c r="G49" s="258"/>
-      <c r="H49" s="258"/>
-      <c r="I49" s="256" t="s">
+      <c r="D49" s="424"/>
+      <c r="E49" s="424"/>
+      <c r="F49" s="424"/>
+      <c r="G49" s="424"/>
+      <c r="H49" s="424"/>
+      <c r="I49" s="422" t="s">
         <v>56</v>
       </c>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="256"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="257"/>
+      <c r="J49" s="422"/>
+      <c r="K49" s="422"/>
+      <c r="L49" s="422"/>
+      <c r="M49" s="422"/>
+      <c r="N49" s="423"/>
       <c r="Q49" s="232" t="s">
         <v>145</v>
       </c>
@@ -10916,47 +10924,47 @@
       <c r="F50" s="85"/>
       <c r="G50" s="85"/>
       <c r="H50" s="85"/>
-      <c r="I50" s="362" t="s">
+      <c r="I50" s="321" t="s">
         <v>101</v>
       </c>
-      <c r="J50" s="362"/>
-      <c r="K50" s="362"/>
-      <c r="L50" s="362"/>
-      <c r="M50" s="362"/>
-      <c r="N50" s="363"/>
+      <c r="J50" s="321"/>
+      <c r="K50" s="321"/>
+      <c r="L50" s="321"/>
+      <c r="M50" s="321"/>
+      <c r="N50" s="322"/>
       <c r="Q50" s="232" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="652" t="s">
+      <c r="A51" s="313" t="s">
         <v>314</v>
       </c>
-      <c r="B51" s="395" t="s">
+      <c r="B51" s="272" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="395"/>
-      <c r="D51" s="386" t="s">
+      <c r="C51" s="272"/>
+      <c r="D51" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="387"/>
-      <c r="F51" s="398"/>
-      <c r="G51" s="386" t="s">
+      <c r="E51" s="264"/>
+      <c r="F51" s="275"/>
+      <c r="G51" s="263" t="s">
         <v>362</v>
       </c>
-      <c r="H51" s="387"/>
-      <c r="I51" s="388"/>
-      <c r="J51" s="261" t="s">
+      <c r="H51" s="264"/>
+      <c r="I51" s="265"/>
+      <c r="J51" s="425" t="s">
         <v>303</v>
       </c>
-      <c r="K51" s="262"/>
-      <c r="L51" s="340" t="s">
+      <c r="K51" s="426"/>
+      <c r="L51" s="295" t="s">
         <v>103</v>
       </c>
-      <c r="M51" s="356" t="s">
+      <c r="M51" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="N51" s="352" t="s">
+      <c r="N51" s="309" t="s">
         <v>67</v>
       </c>
       <c r="Q51" s="232" t="s">
@@ -10964,43 +10972,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="653"/>
-      <c r="B52" s="396"/>
-      <c r="C52" s="396"/>
-      <c r="D52" s="389"/>
-      <c r="E52" s="390"/>
-      <c r="F52" s="399"/>
-      <c r="G52" s="389"/>
-      <c r="H52" s="390"/>
-      <c r="I52" s="391"/>
-      <c r="J52" s="263"/>
-      <c r="K52" s="264"/>
-      <c r="L52" s="340"/>
-      <c r="M52" s="356"/>
-      <c r="N52" s="352"/>
+      <c r="A52" s="314"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="273"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="276"/>
+      <c r="G52" s="266"/>
+      <c r="H52" s="267"/>
+      <c r="I52" s="268"/>
+      <c r="J52" s="427"/>
+      <c r="K52" s="428"/>
+      <c r="L52" s="295"/>
+      <c r="M52" s="315"/>
+      <c r="N52" s="309"/>
       <c r="Q52" s="232" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="651"/>
-      <c r="B53" s="397"/>
-      <c r="C53" s="397"/>
-      <c r="D53" s="392"/>
-      <c r="E53" s="393"/>
-      <c r="F53" s="371"/>
-      <c r="G53" s="392"/>
-      <c r="H53" s="393"/>
-      <c r="I53" s="394"/>
+      <c r="A53" s="242"/>
+      <c r="B53" s="274"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="269"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="277"/>
+      <c r="G53" s="269"/>
+      <c r="H53" s="270"/>
+      <c r="I53" s="271"/>
       <c r="J53" s="90" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="341"/>
-      <c r="M53" s="357"/>
-      <c r="N53" s="353"/>
+      <c r="L53" s="296"/>
+      <c r="M53" s="316"/>
+      <c r="N53" s="310"/>
       <c r="O53" s="92"/>
       <c r="P53" s="92"/>
       <c r="Q53" s="232" t="s">
@@ -11008,15 +11016,15 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="247"/>
-      <c r="B54" s="247"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="247"/>
-      <c r="E54" s="247"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="247"/>
-      <c r="I54" s="247"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="259"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="259"/>
+      <c r="E54" s="259"/>
+      <c r="F54" s="259"/>
+      <c r="G54" s="259"/>
+      <c r="H54" s="259"/>
+      <c r="I54" s="259"/>
       <c r="J54" s="240"/>
       <c r="K54" s="240"/>
       <c r="L54" s="240"/>
@@ -14672,29 +14680,84 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="134">
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G51:I53"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="L51:L53"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
@@ -14719,93 +14782,38 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G51:I53"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I46:L46"/>
     <mergeCell ref="I47:L47"/>
     <mergeCell ref="I48:L48"/>
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="J51:K52"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -15285,10 +15293,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15309,82 +15317,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="402"/>
+      <c r="A1" s="431"/>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="433"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="444" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
-      <c r="J2" s="414"/>
-      <c r="K2" s="414"/>
-      <c r="L2" s="414"/>
-      <c r="M2" s="415"/>
+      <c r="B2" s="445"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="446"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="403" t="s">
+      <c r="B3" s="434" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="411" t="s">
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="435"/>
+      <c r="F3" s="442" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="407" t="s">
+      <c r="G3" s="438" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="404"/>
-      <c r="I3" s="407" t="s">
+      <c r="H3" s="435"/>
+      <c r="I3" s="438" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="403"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="409" t="s">
+      <c r="J3" s="434"/>
+      <c r="K3" s="435"/>
+      <c r="L3" s="440" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="410"/>
+      <c r="M3" s="441"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="405"/>
-      <c r="C4" s="405"/>
-      <c r="D4" s="405"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="412"/>
-      <c r="G4" s="408"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="408"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="406"/>
+      <c r="B4" s="436"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="437"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="439"/>
+      <c r="H4" s="437"/>
+      <c r="I4" s="439"/>
+      <c r="J4" s="436"/>
+      <c r="K4" s="437"/>
       <c r="L4" s="5" t="s">
         <v>82</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="682"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" s="683"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15420,7 +15434,7 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I44" sqref="I44:K44"/>
     </sheetView>
   </sheetViews>
@@ -15442,295 +15456,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="443"/>
-      <c r="B1" s="444"/>
-      <c r="C1" s="444"/>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="445"/>
+      <c r="A1" s="491"/>
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="492"/>
+      <c r="E1" s="492"/>
+      <c r="F1" s="492"/>
+      <c r="G1" s="492"/>
+      <c r="H1" s="492"/>
+      <c r="I1" s="492"/>
+      <c r="J1" s="492"/>
+      <c r="K1" s="493"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="483" t="s">
+      <c r="A2" s="525" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="484"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="485"/>
+      <c r="B2" s="526"/>
+      <c r="C2" s="526"/>
+      <c r="D2" s="526"/>
+      <c r="E2" s="526"/>
+      <c r="F2" s="526"/>
+      <c r="G2" s="526"/>
+      <c r="H2" s="526"/>
+      <c r="I2" s="526"/>
+      <c r="J2" s="526"/>
+      <c r="K2" s="527"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="459" t="s">
+      <c r="A3" s="504" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="460" t="s">
+      <c r="B3" s="506" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="460"/>
-      <c r="D3" s="461"/>
-      <c r="E3" s="403" t="s">
+      <c r="C3" s="506"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="434" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="404"/>
-      <c r="G3" s="502" t="s">
+      <c r="F3" s="435"/>
+      <c r="G3" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="407" t="s">
+      <c r="H3" s="438" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="473"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="474"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
+      <c r="K3" s="516"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="442"/>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
-      <c r="E4" s="481"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="476"/>
-      <c r="J4" s="476"/>
-      <c r="K4" s="477"/>
+      <c r="A4" s="505"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="523"/>
+      <c r="F4" s="524"/>
+      <c r="G4" s="472"/>
+      <c r="H4" s="517"/>
+      <c r="I4" s="518"/>
+      <c r="J4" s="518"/>
+      <c r="K4" s="519"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="500"/>
-      <c r="C5" s="500"/>
-      <c r="D5" s="501"/>
+      <c r="B5" s="466"/>
+      <c r="C5" s="466"/>
+      <c r="D5" s="467"/>
       <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="429"/>
-      <c r="H5" s="478"/>
-      <c r="I5" s="479"/>
-      <c r="J5" s="479"/>
-      <c r="K5" s="480"/>
+      <c r="G5" s="473"/>
+      <c r="H5" s="520"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="522"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="467"/>
-      <c r="B6" s="468"/>
-      <c r="C6" s="468"/>
-      <c r="D6" s="469"/>
+      <c r="A6" s="468"/>
+      <c r="B6" s="469"/>
+      <c r="C6" s="469"/>
+      <c r="D6" s="470"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="455"/>
-      <c r="J6" s="455"/>
-      <c r="K6" s="456"/>
+      <c r="H6" s="474"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="475"/>
+      <c r="K6" s="476"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="467"/>
-      <c r="B7" s="468"/>
-      <c r="C7" s="468"/>
-      <c r="D7" s="469"/>
+      <c r="A7" s="468"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="469"/>
+      <c r="D7" s="470"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="454"/>
-      <c r="I7" s="455"/>
-      <c r="J7" s="455"/>
-      <c r="K7" s="456"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="475"/>
+      <c r="J7" s="475"/>
+      <c r="K7" s="476"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="467"/>
-      <c r="B8" s="468"/>
-      <c r="C8" s="468"/>
-      <c r="D8" s="469"/>
+      <c r="A8" s="468"/>
+      <c r="B8" s="469"/>
+      <c r="C8" s="469"/>
+      <c r="D8" s="470"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="454"/>
-      <c r="I8" s="455"/>
-      <c r="J8" s="455"/>
-      <c r="K8" s="456"/>
+      <c r="H8" s="474"/>
+      <c r="I8" s="475"/>
+      <c r="J8" s="475"/>
+      <c r="K8" s="476"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="467"/>
-      <c r="B9" s="468"/>
-      <c r="C9" s="468"/>
-      <c r="D9" s="469"/>
+      <c r="A9" s="468"/>
+      <c r="B9" s="469"/>
+      <c r="C9" s="469"/>
+      <c r="D9" s="470"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="454"/>
-      <c r="I9" s="455"/>
-      <c r="J9" s="455"/>
-      <c r="K9" s="456"/>
+      <c r="H9" s="474"/>
+      <c r="I9" s="475"/>
+      <c r="J9" s="475"/>
+      <c r="K9" s="476"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="467"/>
-      <c r="B10" s="468"/>
-      <c r="C10" s="468"/>
-      <c r="D10" s="469"/>
+      <c r="A10" s="468"/>
+      <c r="B10" s="469"/>
+      <c r="C10" s="469"/>
+      <c r="D10" s="470"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="454"/>
-      <c r="I10" s="455"/>
-      <c r="J10" s="455"/>
-      <c r="K10" s="456"/>
+      <c r="H10" s="474"/>
+      <c r="I10" s="475"/>
+      <c r="J10" s="475"/>
+      <c r="K10" s="476"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="467"/>
-      <c r="B11" s="468"/>
-      <c r="C11" s="468"/>
-      <c r="D11" s="469"/>
+      <c r="A11" s="468"/>
+      <c r="B11" s="469"/>
+      <c r="C11" s="469"/>
+      <c r="D11" s="470"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="454"/>
-      <c r="I11" s="455"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="456"/>
+      <c r="H11" s="474"/>
+      <c r="I11" s="475"/>
+      <c r="J11" s="475"/>
+      <c r="K11" s="476"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="464"/>
-      <c r="B12" s="465"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="466"/>
+      <c r="A12" s="510"/>
+      <c r="B12" s="511"/>
+      <c r="C12" s="511"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="419"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="420"/>
-      <c r="K12" s="421"/>
+      <c r="H12" s="533"/>
+      <c r="I12" s="534"/>
+      <c r="J12" s="534"/>
+      <c r="K12" s="535"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="470" t="s">
+      <c r="A13" s="513" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="471"/>
-      <c r="C13" s="471"/>
-      <c r="D13" s="471"/>
-      <c r="E13" s="471"/>
-      <c r="F13" s="471"/>
-      <c r="G13" s="471"/>
-      <c r="H13" s="471"/>
-      <c r="I13" s="471"/>
-      <c r="J13" s="471"/>
-      <c r="K13" s="472"/>
+      <c r="B13" s="514"/>
+      <c r="C13" s="514"/>
+      <c r="D13" s="514"/>
+      <c r="E13" s="514"/>
+      <c r="F13" s="514"/>
+      <c r="G13" s="514"/>
+      <c r="H13" s="514"/>
+      <c r="I13" s="514"/>
+      <c r="J13" s="514"/>
+      <c r="K13" s="454"/>
     </row>
     <row r="14" spans="1:11" s="129" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="422" t="s">
+      <c r="A14" s="536" t="s">
         <v>320</v>
       </c>
-      <c r="B14" s="423"/>
-      <c r="C14" s="423"/>
-      <c r="D14" s="423"/>
-      <c r="E14" s="423"/>
-      <c r="F14" s="423"/>
-      <c r="G14" s="423"/>
-      <c r="H14" s="423"/>
-      <c r="I14" s="423"/>
-      <c r="J14" s="423"/>
-      <c r="K14" s="424"/>
+      <c r="B14" s="537"/>
+      <c r="C14" s="537"/>
+      <c r="D14" s="537"/>
+      <c r="E14" s="537"/>
+      <c r="F14" s="537"/>
+      <c r="G14" s="537"/>
+      <c r="H14" s="537"/>
+      <c r="I14" s="537"/>
+      <c r="J14" s="537"/>
+      <c r="K14" s="538"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="451" t="s">
+      <c r="A15" s="499" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="452"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="452"/>
-      <c r="E15" s="452"/>
-      <c r="F15" s="452"/>
-      <c r="G15" s="452"/>
-      <c r="H15" s="452"/>
-      <c r="I15" s="452"/>
-      <c r="J15" s="452"/>
-      <c r="K15" s="453"/>
+      <c r="B15" s="500"/>
+      <c r="C15" s="500"/>
+      <c r="D15" s="500"/>
+      <c r="E15" s="500"/>
+      <c r="F15" s="500"/>
+      <c r="G15" s="500"/>
+      <c r="H15" s="500"/>
+      <c r="I15" s="500"/>
+      <c r="J15" s="500"/>
+      <c r="K15" s="501"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="442" t="s">
+      <c r="A16" s="505" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="405" t="s">
+      <c r="B16" s="436" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="446"/>
-      <c r="D16" s="447"/>
-      <c r="E16" s="405" t="s">
+      <c r="C16" s="494"/>
+      <c r="D16" s="495"/>
+      <c r="E16" s="436" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="406"/>
-      <c r="G16" s="428" t="s">
+      <c r="F16" s="437"/>
+      <c r="G16" s="472" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="457" t="s">
+      <c r="H16" s="502" t="s">
         <v>317</v>
       </c>
-      <c r="I16" s="408" t="s">
+      <c r="I16" s="439" t="s">
         <v>338</v>
       </c>
-      <c r="J16" s="446"/>
-      <c r="K16" s="486"/>
+      <c r="J16" s="494"/>
+      <c r="K16" s="528"/>
     </row>
     <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="442"/>
-      <c r="B17" s="448"/>
-      <c r="C17" s="448"/>
-      <c r="D17" s="447"/>
-      <c r="E17" s="481"/>
-      <c r="F17" s="482"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="457"/>
-      <c r="I17" s="487"/>
-      <c r="J17" s="448"/>
-      <c r="K17" s="486"/>
+      <c r="A17" s="505"/>
+      <c r="B17" s="496"/>
+      <c r="C17" s="496"/>
+      <c r="D17" s="495"/>
+      <c r="E17" s="523"/>
+      <c r="F17" s="524"/>
+      <c r="G17" s="472"/>
+      <c r="H17" s="502"/>
+      <c r="I17" s="529"/>
+      <c r="J17" s="496"/>
+      <c r="K17" s="528"/>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="449"/>
-      <c r="C18" s="449"/>
-      <c r="D18" s="450"/>
+      <c r="B18" s="497"/>
+      <c r="C18" s="497"/>
+      <c r="D18" s="498"/>
       <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="429"/>
-      <c r="H18" s="458"/>
-      <c r="I18" s="488"/>
-      <c r="J18" s="449"/>
-      <c r="K18" s="489"/>
+      <c r="G18" s="473"/>
+      <c r="H18" s="503"/>
+      <c r="I18" s="530"/>
+      <c r="J18" s="497"/>
+      <c r="K18" s="531"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="433"/>
-      <c r="B19" s="434"/>
-      <c r="C19" s="434"/>
-      <c r="D19" s="435"/>
+      <c r="A19" s="479"/>
+      <c r="B19" s="480"/>
+      <c r="C19" s="480"/>
+      <c r="D19" s="481"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="430"/>
-      <c r="J19" s="431"/>
-      <c r="K19" s="432"/>
+      <c r="I19" s="485"/>
+      <c r="J19" s="486"/>
+      <c r="K19" s="487"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="425"/>
-      <c r="B20" s="426"/>
-      <c r="C20" s="426"/>
-      <c r="D20" s="427"/>
+      <c r="A20" s="482"/>
+      <c r="B20" s="483"/>
+      <c r="C20" s="483"/>
+      <c r="D20" s="484"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
@@ -15740,10 +15754,10 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" s="177" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="425"/>
-      <c r="B21" s="426"/>
-      <c r="C21" s="426"/>
-      <c r="D21" s="427"/>
+      <c r="A21" s="482"/>
+      <c r="B21" s="483"/>
+      <c r="C21" s="483"/>
+      <c r="D21" s="484"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
@@ -15753,10 +15767,10 @@
       <c r="K21" s="176"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="425"/>
-      <c r="B22" s="426"/>
-      <c r="C22" s="426"/>
-      <c r="D22" s="427"/>
+      <c r="A22" s="482"/>
+      <c r="B22" s="483"/>
+      <c r="C22" s="483"/>
+      <c r="D22" s="484"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
@@ -15766,10 +15780,10 @@
       <c r="K22" s="176"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="425"/>
-      <c r="B23" s="426"/>
-      <c r="C23" s="426"/>
-      <c r="D23" s="427"/>
+      <c r="A23" s="482"/>
+      <c r="B23" s="483"/>
+      <c r="C23" s="483"/>
+      <c r="D23" s="484"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
@@ -15779,10 +15793,10 @@
       <c r="K23" s="176"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="425"/>
-      <c r="B24" s="426"/>
-      <c r="C24" s="426"/>
-      <c r="D24" s="427"/>
+      <c r="A24" s="482"/>
+      <c r="B24" s="483"/>
+      <c r="C24" s="483"/>
+      <c r="D24" s="484"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
@@ -15792,10 +15806,10 @@
       <c r="K24" s="176"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="425"/>
-      <c r="B25" s="426"/>
-      <c r="C25" s="426"/>
-      <c r="D25" s="427"/>
+      <c r="A25" s="482"/>
+      <c r="B25" s="483"/>
+      <c r="C25" s="483"/>
+      <c r="D25" s="484"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="13"/>
@@ -15805,10 +15819,10 @@
       <c r="K25" s="176"/>
     </row>
     <row r="26" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="425"/>
-      <c r="B26" s="426"/>
-      <c r="C26" s="426"/>
-      <c r="D26" s="427"/>
+      <c r="A26" s="482"/>
+      <c r="B26" s="483"/>
+      <c r="C26" s="483"/>
+      <c r="D26" s="484"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="13"/>
@@ -15818,43 +15832,43 @@
       <c r="K26" s="176"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="433"/>
-      <c r="B27" s="434"/>
-      <c r="C27" s="434"/>
-      <c r="D27" s="435"/>
+      <c r="A27" s="479"/>
+      <c r="B27" s="480"/>
+      <c r="C27" s="480"/>
+      <c r="D27" s="481"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="430"/>
-      <c r="J27" s="431"/>
-      <c r="K27" s="432"/>
+      <c r="I27" s="485"/>
+      <c r="J27" s="486"/>
+      <c r="K27" s="487"/>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="433"/>
-      <c r="B28" s="434"/>
-      <c r="C28" s="434"/>
-      <c r="D28" s="435"/>
+      <c r="A28" s="479"/>
+      <c r="B28" s="480"/>
+      <c r="C28" s="480"/>
+      <c r="D28" s="481"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="13"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="430"/>
-      <c r="J28" s="431"/>
-      <c r="K28" s="432"/>
+      <c r="I28" s="485"/>
+      <c r="J28" s="486"/>
+      <c r="K28" s="487"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="433"/>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="435"/>
+      <c r="A29" s="479"/>
+      <c r="B29" s="480"/>
+      <c r="C29" s="480"/>
+      <c r="D29" s="481"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="430"/>
-      <c r="J29" s="431"/>
-      <c r="K29" s="432"/>
+      <c r="I29" s="485"/>
+      <c r="J29" s="486"/>
+      <c r="K29" s="487"/>
     </row>
     <row r="30" spans="1:11" s="171" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="168"/>
@@ -15935,86 +15949,86 @@
       <c r="K35" s="167"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="433"/>
-      <c r="B36" s="434"/>
-      <c r="C36" s="434"/>
-      <c r="D36" s="435"/>
+      <c r="A36" s="479"/>
+      <c r="B36" s="480"/>
+      <c r="C36" s="480"/>
+      <c r="D36" s="481"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="13"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="430"/>
-      <c r="J36" s="431"/>
-      <c r="K36" s="432"/>
+      <c r="I36" s="485"/>
+      <c r="J36" s="486"/>
+      <c r="K36" s="487"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="433"/>
-      <c r="B37" s="434"/>
-      <c r="C37" s="434"/>
-      <c r="D37" s="435"/>
+      <c r="A37" s="479"/>
+      <c r="B37" s="480"/>
+      <c r="C37" s="480"/>
+      <c r="D37" s="481"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="13"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="430"/>
-      <c r="J37" s="431"/>
-      <c r="K37" s="432"/>
+      <c r="I37" s="485"/>
+      <c r="J37" s="486"/>
+      <c r="K37" s="487"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="433"/>
-      <c r="B38" s="434"/>
-      <c r="C38" s="434"/>
-      <c r="D38" s="435"/>
+      <c r="A38" s="479"/>
+      <c r="B38" s="480"/>
+      <c r="C38" s="480"/>
+      <c r="D38" s="481"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="13"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="430"/>
-      <c r="J38" s="431"/>
-      <c r="K38" s="432"/>
+      <c r="I38" s="485"/>
+      <c r="J38" s="486"/>
+      <c r="K38" s="487"/>
     </row>
     <row r="39" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="436"/>
-      <c r="B39" s="437"/>
-      <c r="C39" s="437"/>
-      <c r="D39" s="438"/>
+      <c r="A39" s="539"/>
+      <c r="B39" s="540"/>
+      <c r="C39" s="540"/>
+      <c r="D39" s="541"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="439"/>
-      <c r="J39" s="440"/>
-      <c r="K39" s="441"/>
+      <c r="I39" s="542"/>
+      <c r="J39" s="543"/>
+      <c r="K39" s="544"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="416" t="s">
+      <c r="A40" s="452" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="417"/>
-      <c r="C40" s="417"/>
-      <c r="D40" s="417"/>
-      <c r="E40" s="417"/>
-      <c r="F40" s="417"/>
-      <c r="G40" s="417"/>
-      <c r="H40" s="417"/>
-      <c r="I40" s="417"/>
-      <c r="J40" s="417"/>
-      <c r="K40" s="418"/>
+      <c r="B40" s="453"/>
+      <c r="C40" s="453"/>
+      <c r="D40" s="453"/>
+      <c r="E40" s="453"/>
+      <c r="F40" s="453"/>
+      <c r="G40" s="453"/>
+      <c r="H40" s="453"/>
+      <c r="I40" s="453"/>
+      <c r="J40" s="453"/>
+      <c r="K40" s="532"/>
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="497" t="s">
+      <c r="A41" s="488" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="498"/>
-      <c r="C41" s="498"/>
-      <c r="D41" s="498"/>
-      <c r="E41" s="498"/>
-      <c r="F41" s="498"/>
-      <c r="G41" s="498"/>
-      <c r="H41" s="498"/>
-      <c r="I41" s="498"/>
-      <c r="J41" s="498"/>
-      <c r="K41" s="499"/>
+      <c r="B41" s="489"/>
+      <c r="C41" s="489"/>
+      <c r="D41" s="489"/>
+      <c r="E41" s="489"/>
+      <c r="F41" s="489"/>
+      <c r="G41" s="489"/>
+      <c r="H41" s="489"/>
+      <c r="I41" s="489"/>
+      <c r="J41" s="489"/>
+      <c r="K41" s="490"/>
     </row>
     <row r="42" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="127" t="s">
@@ -16026,143 +16040,143 @@
       <c r="C42" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="503" t="s">
+      <c r="D42" s="463" t="s">
         <v>343</v>
       </c>
-      <c r="E42" s="503"/>
-      <c r="F42" s="503"/>
-      <c r="G42" s="503"/>
-      <c r="H42" s="504"/>
+      <c r="E42" s="463"/>
+      <c r="F42" s="463"/>
+      <c r="G42" s="463"/>
+      <c r="H42" s="464"/>
       <c r="I42" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="503" t="s">
+      <c r="J42" s="463" t="s">
         <v>77</v>
       </c>
-      <c r="K42" s="508"/>
+      <c r="K42" s="465"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="492"/>
-      <c r="B43" s="493"/>
-      <c r="C43" s="494"/>
-      <c r="D43" s="495"/>
-      <c r="E43" s="495"/>
-      <c r="F43" s="495"/>
-      <c r="G43" s="495"/>
-      <c r="H43" s="496"/>
-      <c r="I43" s="505"/>
-      <c r="J43" s="506"/>
-      <c r="K43" s="507"/>
+      <c r="A43" s="455"/>
+      <c r="B43" s="456"/>
+      <c r="C43" s="460"/>
+      <c r="D43" s="461"/>
+      <c r="E43" s="461"/>
+      <c r="F43" s="461"/>
+      <c r="G43" s="461"/>
+      <c r="H43" s="462"/>
+      <c r="I43" s="457"/>
+      <c r="J43" s="458"/>
+      <c r="K43" s="459"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="492"/>
-      <c r="B44" s="493"/>
-      <c r="C44" s="494"/>
-      <c r="D44" s="495"/>
-      <c r="E44" s="495"/>
-      <c r="F44" s="495"/>
-      <c r="G44" s="495"/>
-      <c r="H44" s="496"/>
-      <c r="I44" s="505"/>
-      <c r="J44" s="506"/>
-      <c r="K44" s="507"/>
+      <c r="A44" s="455"/>
+      <c r="B44" s="456"/>
+      <c r="C44" s="460"/>
+      <c r="D44" s="461"/>
+      <c r="E44" s="461"/>
+      <c r="F44" s="461"/>
+      <c r="G44" s="461"/>
+      <c r="H44" s="462"/>
+      <c r="I44" s="457"/>
+      <c r="J44" s="458"/>
+      <c r="K44" s="459"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="492"/>
-      <c r="B45" s="493"/>
-      <c r="C45" s="494"/>
-      <c r="D45" s="495"/>
-      <c r="E45" s="495"/>
-      <c r="F45" s="495"/>
-      <c r="G45" s="495"/>
-      <c r="H45" s="496"/>
-      <c r="I45" s="505"/>
-      <c r="J45" s="506"/>
-      <c r="K45" s="507"/>
+      <c r="A45" s="455"/>
+      <c r="B45" s="456"/>
+      <c r="C45" s="460"/>
+      <c r="D45" s="461"/>
+      <c r="E45" s="461"/>
+      <c r="F45" s="461"/>
+      <c r="G45" s="461"/>
+      <c r="H45" s="462"/>
+      <c r="I45" s="457"/>
+      <c r="J45" s="458"/>
+      <c r="K45" s="459"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="492"/>
-      <c r="B46" s="493"/>
-      <c r="C46" s="494"/>
-      <c r="D46" s="495"/>
-      <c r="E46" s="495"/>
-      <c r="F46" s="495"/>
-      <c r="G46" s="495"/>
-      <c r="H46" s="496"/>
-      <c r="I46" s="505"/>
-      <c r="J46" s="506"/>
-      <c r="K46" s="507"/>
+      <c r="A46" s="455"/>
+      <c r="B46" s="456"/>
+      <c r="C46" s="460"/>
+      <c r="D46" s="461"/>
+      <c r="E46" s="461"/>
+      <c r="F46" s="461"/>
+      <c r="G46" s="461"/>
+      <c r="H46" s="462"/>
+      <c r="I46" s="457"/>
+      <c r="J46" s="458"/>
+      <c r="K46" s="459"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="492"/>
-      <c r="B47" s="493"/>
-      <c r="C47" s="494"/>
-      <c r="D47" s="495"/>
-      <c r="E47" s="495"/>
-      <c r="F47" s="495"/>
-      <c r="G47" s="495"/>
-      <c r="H47" s="496"/>
-      <c r="I47" s="505"/>
-      <c r="J47" s="506"/>
-      <c r="K47" s="507"/>
+      <c r="A47" s="455"/>
+      <c r="B47" s="456"/>
+      <c r="C47" s="460"/>
+      <c r="D47" s="461"/>
+      <c r="E47" s="461"/>
+      <c r="F47" s="461"/>
+      <c r="G47" s="461"/>
+      <c r="H47" s="462"/>
+      <c r="I47" s="457"/>
+      <c r="J47" s="458"/>
+      <c r="K47" s="459"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="492"/>
-      <c r="B48" s="493"/>
-      <c r="C48" s="494"/>
-      <c r="D48" s="495"/>
-      <c r="E48" s="495"/>
-      <c r="F48" s="495"/>
-      <c r="G48" s="495"/>
-      <c r="H48" s="496"/>
-      <c r="I48" s="505"/>
-      <c r="J48" s="506"/>
-      <c r="K48" s="507"/>
+      <c r="A48" s="455"/>
+      <c r="B48" s="456"/>
+      <c r="C48" s="460"/>
+      <c r="D48" s="461"/>
+      <c r="E48" s="461"/>
+      <c r="F48" s="461"/>
+      <c r="G48" s="461"/>
+      <c r="H48" s="462"/>
+      <c r="I48" s="457"/>
+      <c r="J48" s="458"/>
+      <c r="K48" s="459"/>
     </row>
     <row r="49" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="492"/>
-      <c r="B49" s="493"/>
-      <c r="C49" s="494"/>
-      <c r="D49" s="495"/>
-      <c r="E49" s="495"/>
-      <c r="F49" s="495"/>
-      <c r="G49" s="495"/>
-      <c r="H49" s="496"/>
-      <c r="I49" s="505"/>
-      <c r="J49" s="506"/>
-      <c r="K49" s="507"/>
+      <c r="A49" s="455"/>
+      <c r="B49" s="456"/>
+      <c r="C49" s="460"/>
+      <c r="D49" s="461"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
+      <c r="G49" s="461"/>
+      <c r="H49" s="462"/>
+      <c r="I49" s="457"/>
+      <c r="J49" s="458"/>
+      <c r="K49" s="459"/>
     </row>
     <row r="50" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="416" t="s">
+      <c r="A50" s="452" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="417"/>
-      <c r="C50" s="417"/>
-      <c r="D50" s="417"/>
-      <c r="E50" s="417"/>
-      <c r="F50" s="417"/>
-      <c r="G50" s="417"/>
-      <c r="H50" s="417"/>
-      <c r="I50" s="417"/>
-      <c r="J50" s="417"/>
-      <c r="K50" s="472"/>
+      <c r="B50" s="453"/>
+      <c r="C50" s="453"/>
+      <c r="D50" s="453"/>
+      <c r="E50" s="453"/>
+      <c r="F50" s="453"/>
+      <c r="G50" s="453"/>
+      <c r="H50" s="453"/>
+      <c r="I50" s="453"/>
+      <c r="J50" s="453"/>
+      <c r="K50" s="454"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="490" t="s">
+      <c r="A51" s="477" t="s">
         <v>368</v>
       </c>
-      <c r="B51" s="491"/>
-      <c r="C51" s="511"/>
-      <c r="D51" s="512"/>
-      <c r="E51" s="512"/>
-      <c r="F51" s="513"/>
-      <c r="G51" s="509" t="s">
+      <c r="B51" s="478"/>
+      <c r="C51" s="449"/>
+      <c r="D51" s="450"/>
+      <c r="E51" s="450"/>
+      <c r="F51" s="451"/>
+      <c r="G51" s="447" t="s">
         <v>369</v>
       </c>
-      <c r="H51" s="510"/>
-      <c r="I51" s="511"/>
-      <c r="J51" s="512"/>
-      <c r="K51" s="513"/>
+      <c r="H51" s="448"/>
+      <c r="I51" s="449"/>
+      <c r="J51" s="450"/>
+      <c r="K51" s="451"/>
       <c r="L51" s="194"/>
       <c r="M51" s="194"/>
     </row>
@@ -16183,6 +16197,74 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="84">
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I16:K18"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="I51:K51"/>
@@ -16199,74 +16281,6 @@
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I16:K18"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16305,35 +16319,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="521"/>
-      <c r="B1" s="522"/>
-      <c r="C1" s="522"/>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
-      <c r="L1" s="522"/>
-      <c r="M1" s="523"/>
+      <c r="A1" s="662"/>
+      <c r="B1" s="663"/>
+      <c r="C1" s="663"/>
+      <c r="D1" s="663"/>
+      <c r="E1" s="663"/>
+      <c r="F1" s="663"/>
+      <c r="G1" s="663"/>
+      <c r="H1" s="663"/>
+      <c r="I1" s="663"/>
+      <c r="J1" s="663"/>
+      <c r="K1" s="663"/>
+      <c r="L1" s="663"/>
+      <c r="M1" s="664"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="639" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="526" t="s">
+      <c r="B2" s="640"/>
+      <c r="C2" s="667" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="526"/>
-      <c r="E2" s="526"/>
-      <c r="F2" s="527"/>
+      <c r="D2" s="667"/>
+      <c r="E2" s="667"/>
+      <c r="F2" s="668"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="524"/>
-      <c r="J2" s="524"/>
+      <c r="I2" s="665"/>
+      <c r="J2" s="665"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="24"/>
@@ -16341,16 +16355,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="655" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="530"/>
-      <c r="E3" s="530"/>
-      <c r="F3" s="531"/>
+      <c r="D3" s="655"/>
+      <c r="E3" s="655"/>
+      <c r="F3" s="656"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="525"/>
+      <c r="I3" s="666"/>
+      <c r="J3" s="666"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="29"/>
@@ -16358,12 +16372,12 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="530" t="s">
+      <c r="C4" s="655" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
-      <c r="F4" s="531"/>
+      <c r="D4" s="655"/>
+      <c r="E4" s="655"/>
+      <c r="F4" s="656"/>
       <c r="G4" s="149"/>
       <c r="H4" s="190"/>
       <c r="I4" s="149"/>
@@ -16375,33 +16389,33 @@
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="530"/>
-      <c r="D5" s="530"/>
-      <c r="E5" s="530"/>
-      <c r="F5" s="531"/>
-      <c r="G5" s="518"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="518"/>
-      <c r="J5" s="518"/>
-      <c r="K5" s="518"/>
-      <c r="L5" s="518"/>
+      <c r="C5" s="655"/>
+      <c r="D5" s="655"/>
+      <c r="E5" s="655"/>
+      <c r="F5" s="656"/>
+      <c r="G5" s="570"/>
+      <c r="H5" s="570"/>
+      <c r="I5" s="570"/>
+      <c r="J5" s="570"/>
+      <c r="K5" s="570"/>
+      <c r="L5" s="570"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="530" t="s">
+      <c r="C6" s="655" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="530"/>
-      <c r="E6" s="530"/>
-      <c r="F6" s="531"/>
+      <c r="D6" s="655"/>
+      <c r="E6" s="655"/>
+      <c r="F6" s="656"/>
       <c r="G6" s="134"/>
       <c r="H6" s="134"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="552"/>
-      <c r="L6" s="552"/>
+      <c r="I6" s="661"/>
+      <c r="J6" s="661"/>
+      <c r="K6" s="661"/>
+      <c r="L6" s="661"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="133" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -16422,12 +16436,12 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="530" t="s">
+      <c r="C8" s="655" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="530"/>
-      <c r="E8" s="530"/>
-      <c r="F8" s="531"/>
+      <c r="D8" s="655"/>
+      <c r="E8" s="655"/>
+      <c r="F8" s="656"/>
       <c r="G8" s="149"/>
       <c r="H8" s="190"/>
       <c r="I8" s="149"/>
@@ -16454,61 +16468,61 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="530"/>
-      <c r="D10" s="530"/>
-      <c r="E10" s="530"/>
-      <c r="F10" s="531"/>
-      <c r="G10" s="518" t="s">
+      <c r="C10" s="655"/>
+      <c r="D10" s="655"/>
+      <c r="E10" s="655"/>
+      <c r="F10" s="656"/>
+      <c r="G10" s="570" t="s">
         <v>307</v>
       </c>
-      <c r="H10" s="518"/>
-      <c r="I10" s="518"/>
-      <c r="J10" s="518"/>
-      <c r="K10" s="518"/>
-      <c r="L10" s="518"/>
+      <c r="H10" s="570"/>
+      <c r="I10" s="570"/>
+      <c r="J10" s="570"/>
+      <c r="K10" s="570"/>
+      <c r="L10" s="570"/>
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="530"/>
-      <c r="D11" s="530"/>
-      <c r="E11" s="530"/>
-      <c r="F11" s="531"/>
+      <c r="C11" s="655"/>
+      <c r="D11" s="655"/>
+      <c r="E11" s="655"/>
+      <c r="F11" s="656"/>
       <c r="G11" s="135"/>
       <c r="H11" s="136"/>
-      <c r="I11" s="550"/>
-      <c r="J11" s="550"/>
-      <c r="K11" s="550"/>
-      <c r="L11" s="550"/>
+      <c r="I11" s="659"/>
+      <c r="J11" s="659"/>
+      <c r="K11" s="659"/>
+      <c r="L11" s="659"/>
       <c r="M11" s="79"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="548"/>
-      <c r="D12" s="548"/>
-      <c r="E12" s="548"/>
-      <c r="F12" s="549"/>
+      <c r="C12" s="657"/>
+      <c r="D12" s="657"/>
+      <c r="E12" s="657"/>
+      <c r="F12" s="658"/>
       <c r="G12" s="136"/>
       <c r="H12" s="136"/>
-      <c r="I12" s="551"/>
-      <c r="J12" s="551"/>
-      <c r="K12" s="551"/>
-      <c r="L12" s="551"/>
+      <c r="I12" s="660"/>
+      <c r="J12" s="660"/>
+      <c r="K12" s="660"/>
+      <c r="L12" s="660"/>
       <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="514" t="s">
+      <c r="A13" s="679" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="515"/>
-      <c r="C13" s="516" t="s">
+      <c r="B13" s="680"/>
+      <c r="C13" s="675" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="516"/>
-      <c r="E13" s="446"/>
-      <c r="F13" s="447"/>
+      <c r="D13" s="675"/>
+      <c r="E13" s="494"/>
+      <c r="F13" s="495"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -16520,48 +16534,48 @@
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="49"/>
-      <c r="C14" s="516"/>
-      <c r="D14" s="516"/>
-      <c r="E14" s="446"/>
-      <c r="F14" s="447"/>
-      <c r="G14" s="517" t="s">
+      <c r="C14" s="675"/>
+      <c r="D14" s="675"/>
+      <c r="E14" s="494"/>
+      <c r="F14" s="495"/>
+      <c r="G14" s="569" t="s">
         <v>307</v>
       </c>
-      <c r="H14" s="518"/>
-      <c r="I14" s="518"/>
-      <c r="J14" s="518"/>
-      <c r="K14" s="518"/>
-      <c r="L14" s="518"/>
+      <c r="H14" s="570"/>
+      <c r="I14" s="570"/>
+      <c r="J14" s="570"/>
+      <c r="K14" s="570"/>
+      <c r="L14" s="570"/>
       <c r="M14" s="112"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="516"/>
-      <c r="D15" s="516"/>
-      <c r="E15" s="446"/>
-      <c r="F15" s="447"/>
+      <c r="C15" s="675"/>
+      <c r="D15" s="675"/>
+      <c r="E15" s="494"/>
+      <c r="F15" s="495"/>
       <c r="G15" s="27"/>
       <c r="H15" s="206"/>
-      <c r="I15" s="519"/>
-      <c r="J15" s="519"/>
-      <c r="K15" s="519"/>
-      <c r="L15" s="519"/>
+      <c r="I15" s="681"/>
+      <c r="J15" s="681"/>
+      <c r="K15" s="681"/>
+      <c r="L15" s="681"/>
       <c r="M15" s="112"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="446"/>
-      <c r="D16" s="446"/>
-      <c r="E16" s="446"/>
-      <c r="F16" s="447"/>
+      <c r="C16" s="494"/>
+      <c r="D16" s="494"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="495"/>
       <c r="G16" s="109"/>
       <c r="H16" s="196"/>
-      <c r="I16" s="520"/>
-      <c r="J16" s="520"/>
-      <c r="K16" s="520"/>
-      <c r="L16" s="520"/>
+      <c r="I16" s="672"/>
+      <c r="J16" s="672"/>
+      <c r="K16" s="672"/>
+      <c r="L16" s="672"/>
       <c r="M16" s="110"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16582,12 +16596,12 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="645" t="s">
+      <c r="C18" s="572" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="645"/>
-      <c r="E18" s="646"/>
-      <c r="F18" s="647"/>
+      <c r="D18" s="572"/>
+      <c r="E18" s="573"/>
+      <c r="F18" s="574"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
@@ -16599,32 +16613,32 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="645"/>
-      <c r="D19" s="645"/>
-      <c r="E19" s="646"/>
-      <c r="F19" s="647"/>
-      <c r="G19" s="517" t="s">
+      <c r="C19" s="572"/>
+      <c r="D19" s="572"/>
+      <c r="E19" s="573"/>
+      <c r="F19" s="574"/>
+      <c r="G19" s="569" t="s">
         <v>307</v>
       </c>
-      <c r="H19" s="518"/>
-      <c r="I19" s="518"/>
-      <c r="J19" s="518"/>
-      <c r="K19" s="518"/>
-      <c r="L19" s="518"/>
+      <c r="H19" s="570"/>
+      <c r="I19" s="570"/>
+      <c r="J19" s="570"/>
+      <c r="K19" s="570"/>
+      <c r="L19" s="570"/>
       <c r="M19" s="43"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="645"/>
-      <c r="D20" s="645"/>
-      <c r="E20" s="646"/>
-      <c r="F20" s="647"/>
+      <c r="C20" s="572"/>
+      <c r="D20" s="572"/>
+      <c r="E20" s="573"/>
+      <c r="F20" s="574"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="623" t="s">
+      <c r="H20" s="545" t="s">
         <v>308</v>
       </c>
-      <c r="I20" s="623"/>
+      <c r="I20" s="545"/>
       <c r="J20" s="207"/>
       <c r="K20" s="208"/>
       <c r="L20" s="114"/>
@@ -16633,15 +16647,15 @@
     <row r="21" spans="1:13" s="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="645"/>
-      <c r="D21" s="645"/>
-      <c r="E21" s="646"/>
-      <c r="F21" s="647"/>
-      <c r="G21" s="624" t="s">
+      <c r="C21" s="572"/>
+      <c r="D21" s="572"/>
+      <c r="E21" s="573"/>
+      <c r="F21" s="574"/>
+      <c r="G21" s="546" t="s">
         <v>310</v>
       </c>
-      <c r="H21" s="625"/>
-      <c r="I21" s="625"/>
+      <c r="H21" s="547"/>
+      <c r="I21" s="547"/>
       <c r="J21" s="207"/>
       <c r="K21" s="209"/>
       <c r="L21" s="114"/>
@@ -16650,31 +16664,31 @@
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="648"/>
-      <c r="D22" s="648"/>
-      <c r="E22" s="648"/>
-      <c r="F22" s="649"/>
+      <c r="C22" s="575"/>
+      <c r="D22" s="575"/>
+      <c r="E22" s="575"/>
+      <c r="F22" s="576"/>
       <c r="G22" s="109" t="s">
         <v>309</v>
       </c>
       <c r="H22" s="196"/>
-      <c r="I22" s="650"/>
-      <c r="J22" s="650"/>
-      <c r="K22" s="650"/>
+      <c r="I22" s="577"/>
+      <c r="J22" s="577"/>
+      <c r="K22" s="577"/>
       <c r="L22" s="115"/>
       <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="553" t="s">
+      <c r="A23" s="565" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="554"/>
-      <c r="C23" s="542" t="s">
+      <c r="B23" s="566"/>
+      <c r="C23" s="579" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="542"/>
-      <c r="E23" s="542"/>
-      <c r="F23" s="543"/>
+      <c r="D23" s="579"/>
+      <c r="E23" s="579"/>
+      <c r="F23" s="580"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
@@ -16686,61 +16700,61 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="533"/>
-      <c r="D24" s="533"/>
-      <c r="E24" s="533"/>
-      <c r="F24" s="532"/>
-      <c r="G24" s="517" t="s">
+      <c r="C24" s="581"/>
+      <c r="D24" s="581"/>
+      <c r="E24" s="581"/>
+      <c r="F24" s="582"/>
+      <c r="G24" s="569" t="s">
         <v>307</v>
       </c>
-      <c r="H24" s="518"/>
-      <c r="I24" s="518"/>
-      <c r="J24" s="518"/>
-      <c r="K24" s="518"/>
-      <c r="L24" s="518"/>
+      <c r="H24" s="570"/>
+      <c r="I24" s="570"/>
+      <c r="J24" s="570"/>
+      <c r="K24" s="570"/>
+      <c r="L24" s="570"/>
       <c r="M24" s="108"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="533"/>
-      <c r="D25" s="533"/>
-      <c r="E25" s="533"/>
-      <c r="F25" s="532"/>
+      <c r="C25" s="581"/>
+      <c r="D25" s="581"/>
+      <c r="E25" s="581"/>
+      <c r="F25" s="582"/>
       <c r="G25" s="107"/>
       <c r="H25" s="196"/>
-      <c r="I25" s="541"/>
-      <c r="J25" s="541"/>
-      <c r="K25" s="541"/>
-      <c r="L25" s="541"/>
+      <c r="I25" s="578"/>
+      <c r="J25" s="578"/>
+      <c r="K25" s="578"/>
+      <c r="L25" s="578"/>
       <c r="M25" s="108"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="47"/>
-      <c r="C26" s="544"/>
-      <c r="D26" s="544"/>
-      <c r="E26" s="544"/>
-      <c r="F26" s="545"/>
+      <c r="C26" s="583"/>
+      <c r="D26" s="583"/>
+      <c r="E26" s="583"/>
+      <c r="F26" s="584"/>
       <c r="G26" s="109"/>
       <c r="H26" s="196"/>
-      <c r="I26" s="520"/>
-      <c r="J26" s="520"/>
-      <c r="K26" s="520"/>
-      <c r="L26" s="520"/>
+      <c r="I26" s="672"/>
+      <c r="J26" s="672"/>
+      <c r="K26" s="672"/>
+      <c r="L26" s="672"/>
       <c r="M26" s="110"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="553" t="s">
+      <c r="A27" s="565" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="554"/>
-      <c r="C27" s="542" t="s">
+      <c r="B27" s="566"/>
+      <c r="C27" s="579" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="542"/>
-      <c r="E27" s="542"/>
-      <c r="F27" s="543"/>
+      <c r="D27" s="579"/>
+      <c r="E27" s="579"/>
+      <c r="F27" s="580"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
@@ -16752,42 +16766,42 @@
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="533"/>
-      <c r="D28" s="533"/>
-      <c r="E28" s="533"/>
-      <c r="F28" s="532"/>
-      <c r="G28" s="517" t="s">
+      <c r="C28" s="581"/>
+      <c r="D28" s="581"/>
+      <c r="E28" s="581"/>
+      <c r="F28" s="582"/>
+      <c r="G28" s="569" t="s">
         <v>307</v>
       </c>
-      <c r="H28" s="518"/>
-      <c r="I28" s="518"/>
-      <c r="J28" s="518"/>
-      <c r="K28" s="518"/>
-      <c r="L28" s="518"/>
+      <c r="H28" s="570"/>
+      <c r="I28" s="570"/>
+      <c r="J28" s="570"/>
+      <c r="K28" s="570"/>
+      <c r="L28" s="570"/>
       <c r="M28" s="150"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="533"/>
-      <c r="D29" s="533"/>
-      <c r="E29" s="533"/>
-      <c r="F29" s="532"/>
+      <c r="C29" s="581"/>
+      <c r="D29" s="581"/>
+      <c r="E29" s="581"/>
+      <c r="F29" s="582"/>
       <c r="G29" s="149"/>
       <c r="H29" s="192"/>
-      <c r="I29" s="541"/>
-      <c r="J29" s="541"/>
-      <c r="K29" s="541"/>
-      <c r="L29" s="541"/>
+      <c r="I29" s="578"/>
+      <c r="J29" s="578"/>
+      <c r="K29" s="578"/>
+      <c r="L29" s="578"/>
       <c r="M29" s="108"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="47"/>
-      <c r="C30" s="544"/>
-      <c r="D30" s="544"/>
-      <c r="E30" s="544"/>
-      <c r="F30" s="545"/>
+      <c r="C30" s="583"/>
+      <c r="D30" s="583"/>
+      <c r="E30" s="583"/>
+      <c r="F30" s="584"/>
       <c r="G30" s="131"/>
       <c r="H30" s="198"/>
       <c r="I30" s="152"/>
@@ -16797,16 +16811,16 @@
       <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="553" t="s">
+      <c r="A31" s="565" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="554"/>
-      <c r="C31" s="542" t="s">
+      <c r="B31" s="566"/>
+      <c r="C31" s="579" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="542"/>
-      <c r="E31" s="542"/>
-      <c r="F31" s="543"/>
+      <c r="D31" s="579"/>
+      <c r="E31" s="579"/>
+      <c r="F31" s="580"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -16818,18 +16832,18 @@
     <row r="32" spans="1:13" s="130" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="533"/>
-      <c r="D32" s="533"/>
-      <c r="E32" s="533"/>
-      <c r="F32" s="532"/>
-      <c r="G32" s="590" t="s">
+      <c r="C32" s="581"/>
+      <c r="D32" s="581"/>
+      <c r="E32" s="581"/>
+      <c r="F32" s="582"/>
+      <c r="G32" s="617" t="s">
         <v>334</v>
       </c>
-      <c r="H32" s="591"/>
-      <c r="I32" s="591"/>
-      <c r="J32" s="591"/>
-      <c r="K32" s="555"/>
-      <c r="L32" s="555"/>
+      <c r="H32" s="618"/>
+      <c r="I32" s="618"/>
+      <c r="J32" s="618"/>
+      <c r="K32" s="616"/>
+      <c r="L32" s="616"/>
       <c r="M32" s="108"/>
     </row>
     <row r="33" spans="1:14" s="151" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16850,44 +16864,44 @@
     <row r="34" spans="1:14" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="533" t="s">
+      <c r="C34" s="581" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="533"/>
-      <c r="E34" s="533"/>
-      <c r="F34" s="532"/>
+      <c r="D34" s="581"/>
+      <c r="E34" s="581"/>
+      <c r="F34" s="582"/>
       <c r="G34" s="107"/>
       <c r="H34" s="197"/>
-      <c r="I34" s="589"/>
-      <c r="J34" s="589"/>
-      <c r="K34" s="589"/>
-      <c r="L34" s="589"/>
+      <c r="I34" s="615"/>
+      <c r="J34" s="615"/>
+      <c r="K34" s="615"/>
+      <c r="L34" s="615"/>
       <c r="M34" s="108"/>
     </row>
     <row r="35" spans="1:14" s="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="533"/>
-      <c r="D35" s="533"/>
-      <c r="E35" s="533"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="590" t="s">
+      <c r="C35" s="581"/>
+      <c r="D35" s="581"/>
+      <c r="E35" s="581"/>
+      <c r="F35" s="582"/>
+      <c r="G35" s="617" t="s">
         <v>334</v>
       </c>
-      <c r="H35" s="591"/>
-      <c r="I35" s="591"/>
-      <c r="J35" s="591"/>
-      <c r="K35" s="555"/>
-      <c r="L35" s="555"/>
+      <c r="H35" s="618"/>
+      <c r="I35" s="618"/>
+      <c r="J35" s="618"/>
+      <c r="K35" s="616"/>
+      <c r="L35" s="616"/>
       <c r="M35" s="108"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
       <c r="B36" s="47"/>
-      <c r="C36" s="544"/>
-      <c r="D36" s="544"/>
-      <c r="E36" s="544"/>
-      <c r="F36" s="545"/>
+      <c r="C36" s="583"/>
+      <c r="D36" s="583"/>
+      <c r="E36" s="583"/>
+      <c r="F36" s="584"/>
       <c r="G36" s="111"/>
       <c r="H36" s="57"/>
       <c r="I36" s="102"/>
@@ -16897,16 +16911,16 @@
       <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="553" t="s">
+      <c r="A37" s="565" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="554"/>
-      <c r="C37" s="536" t="s">
+      <c r="B37" s="566"/>
+      <c r="C37" s="673" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="536"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="537"/>
+      <c r="D37" s="673"/>
+      <c r="E37" s="673"/>
+      <c r="F37" s="674"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -16918,61 +16932,61 @@
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="516"/>
-      <c r="D38" s="516"/>
-      <c r="E38" s="516"/>
-      <c r="F38" s="538"/>
-      <c r="G38" s="517" t="s">
+      <c r="C38" s="675"/>
+      <c r="D38" s="675"/>
+      <c r="E38" s="675"/>
+      <c r="F38" s="676"/>
+      <c r="G38" s="569" t="s">
         <v>318</v>
       </c>
-      <c r="H38" s="518"/>
-      <c r="I38" s="518"/>
-      <c r="J38" s="518"/>
-      <c r="K38" s="518"/>
-      <c r="L38" s="518"/>
-      <c r="M38" s="644"/>
+      <c r="H38" s="570"/>
+      <c r="I38" s="570"/>
+      <c r="J38" s="570"/>
+      <c r="K38" s="570"/>
+      <c r="L38" s="570"/>
+      <c r="M38" s="571"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="516"/>
-      <c r="D39" s="516"/>
-      <c r="E39" s="516"/>
-      <c r="F39" s="538"/>
+      <c r="C39" s="675"/>
+      <c r="D39" s="675"/>
+      <c r="E39" s="675"/>
+      <c r="F39" s="676"/>
       <c r="G39" s="107"/>
       <c r="H39" s="196"/>
-      <c r="I39" s="541"/>
-      <c r="J39" s="541"/>
-      <c r="K39" s="541"/>
-      <c r="L39" s="541"/>
+      <c r="I39" s="578"/>
+      <c r="J39" s="578"/>
+      <c r="K39" s="578"/>
+      <c r="L39" s="578"/>
       <c r="M39" s="108"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
       <c r="B40" s="47"/>
-      <c r="C40" s="539"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="539"/>
-      <c r="F40" s="540"/>
+      <c r="C40" s="677"/>
+      <c r="D40" s="677"/>
+      <c r="E40" s="677"/>
+      <c r="F40" s="678"/>
       <c r="G40" s="109"/>
       <c r="H40" s="196"/>
-      <c r="I40" s="520"/>
-      <c r="J40" s="520"/>
-      <c r="K40" s="520"/>
-      <c r="L40" s="520"/>
+      <c r="I40" s="672"/>
+      <c r="J40" s="672"/>
+      <c r="K40" s="672"/>
+      <c r="L40" s="672"/>
       <c r="M40" s="110"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="534" t="s">
+      <c r="A41" s="670" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="535"/>
-      <c r="C41" s="533" t="s">
+      <c r="B41" s="671"/>
+      <c r="C41" s="581" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="533"/>
-      <c r="E41" s="533"/>
-      <c r="F41" s="532"/>
+      <c r="D41" s="581"/>
+      <c r="E41" s="581"/>
+      <c r="F41" s="582"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="52"/>
@@ -16984,10 +16998,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
       <c r="B42" s="51"/>
-      <c r="C42" s="533"/>
-      <c r="D42" s="533"/>
-      <c r="E42" s="533"/>
-      <c r="F42" s="532"/>
+      <c r="C42" s="581"/>
+      <c r="D42" s="581"/>
+      <c r="E42" s="581"/>
+      <c r="F42" s="582"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
@@ -17002,12 +17016,12 @@
         <v>71</v>
       </c>
       <c r="B43" s="51"/>
-      <c r="C43" s="533" t="s">
+      <c r="C43" s="581" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="533"/>
-      <c r="E43" s="533"/>
-      <c r="F43" s="532"/>
+      <c r="D43" s="581"/>
+      <c r="E43" s="581"/>
+      <c r="F43" s="582"/>
       <c r="G43" s="149"/>
       <c r="H43" s="190"/>
       <c r="I43" s="149"/>
@@ -17020,10 +17034,10 @@
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="51"/>
-      <c r="C44" s="533"/>
-      <c r="D44" s="533"/>
-      <c r="E44" s="533"/>
-      <c r="F44" s="532"/>
+      <c r="C44" s="581"/>
+      <c r="D44" s="581"/>
+      <c r="E44" s="581"/>
+      <c r="F44" s="582"/>
       <c r="G44" s="162" t="s">
         <v>305</v>
       </c>
@@ -17040,12 +17054,12 @@
         <v>72</v>
       </c>
       <c r="B45" s="51"/>
-      <c r="C45" s="532" t="s">
+      <c r="C45" s="582" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="532"/>
-      <c r="E45" s="532"/>
-      <c r="F45" s="532"/>
+      <c r="D45" s="582"/>
+      <c r="E45" s="582"/>
+      <c r="F45" s="582"/>
       <c r="G45" s="149"/>
       <c r="H45" s="190"/>
       <c r="I45" s="149"/>
@@ -17058,10 +17072,10 @@
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
       <c r="B46" s="51"/>
-      <c r="C46" s="532"/>
-      <c r="D46" s="532"/>
-      <c r="E46" s="532"/>
-      <c r="F46" s="532"/>
+      <c r="C46" s="582"/>
+      <c r="D46" s="582"/>
+      <c r="E46" s="582"/>
+      <c r="F46" s="582"/>
       <c r="G46" s="163" t="s">
         <v>306</v>
       </c>
@@ -17078,10 +17092,10 @@
         <v>74</v>
       </c>
       <c r="B47" s="51"/>
-      <c r="C47" s="533" t="s">
+      <c r="C47" s="581" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="533"/>
+      <c r="D47" s="581"/>
       <c r="E47" s="99"/>
       <c r="F47" s="100"/>
       <c r="G47" s="149"/>
@@ -17094,12 +17108,12 @@
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="568"/>
-      <c r="B48" s="569"/>
-      <c r="C48" s="569"/>
-      <c r="D48" s="569"/>
-      <c r="E48" s="569"/>
-      <c r="F48" s="570"/>
+      <c r="A48" s="632"/>
+      <c r="B48" s="633"/>
+      <c r="C48" s="633"/>
+      <c r="D48" s="633"/>
+      <c r="E48" s="633"/>
+      <c r="F48" s="634"/>
       <c r="G48" s="164" t="s">
         <v>306</v>
       </c>
@@ -17112,12 +17126,12 @@
       <c r="N48" s="57"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="571"/>
-      <c r="B49" s="572"/>
-      <c r="C49" s="572"/>
-      <c r="D49" s="572"/>
-      <c r="E49" s="572"/>
-      <c r="F49" s="573"/>
+      <c r="A49" s="635"/>
+      <c r="B49" s="636"/>
+      <c r="C49" s="636"/>
+      <c r="D49" s="636"/>
+      <c r="E49" s="636"/>
+      <c r="F49" s="637"/>
       <c r="G49" s="101"/>
       <c r="H49" s="97"/>
       <c r="I49" s="97"/>
@@ -17128,10 +17142,10 @@
       <c r="N49" s="57"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="642" t="s">
+      <c r="A50" s="567" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="643"/>
+      <c r="B50" s="568"/>
       <c r="C50" s="160" t="s">
         <v>361</v>
       </c>
@@ -17141,128 +17155,128 @@
       <c r="G50" s="160"/>
       <c r="H50" s="160"/>
       <c r="I50" s="161"/>
-      <c r="J50" s="556"/>
-      <c r="K50" s="557"/>
-      <c r="L50" s="557"/>
-      <c r="M50" s="558"/>
+      <c r="J50" s="619"/>
+      <c r="K50" s="620"/>
+      <c r="L50" s="620"/>
+      <c r="M50" s="621"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="565" t="s">
+      <c r="A51" s="629" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="566"/>
-      <c r="C51" s="566"/>
-      <c r="D51" s="566"/>
-      <c r="E51" s="567"/>
+      <c r="B51" s="630"/>
+      <c r="C51" s="630"/>
+      <c r="D51" s="630"/>
+      <c r="E51" s="631"/>
       <c r="F51" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="574" t="s">
+      <c r="G51" s="638" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="503"/>
-      <c r="I51" s="508"/>
-      <c r="J51" s="559"/>
-      <c r="K51" s="560"/>
-      <c r="L51" s="560"/>
-      <c r="M51" s="561"/>
+      <c r="H51" s="463"/>
+      <c r="I51" s="465"/>
+      <c r="J51" s="622"/>
+      <c r="K51" s="623"/>
+      <c r="L51" s="623"/>
+      <c r="M51" s="624"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="582"/>
-      <c r="B52" s="583"/>
-      <c r="C52" s="585"/>
-      <c r="D52" s="585"/>
-      <c r="E52" s="586"/>
+      <c r="A52" s="648"/>
+      <c r="B52" s="649"/>
+      <c r="C52" s="651"/>
+      <c r="D52" s="651"/>
+      <c r="E52" s="652"/>
       <c r="F52" s="58"/>
-      <c r="G52" s="575"/>
-      <c r="H52" s="576"/>
-      <c r="I52" s="577"/>
-      <c r="J52" s="559"/>
-      <c r="K52" s="560"/>
-      <c r="L52" s="560"/>
-      <c r="M52" s="561"/>
+      <c r="G52" s="641"/>
+      <c r="H52" s="642"/>
+      <c r="I52" s="643"/>
+      <c r="J52" s="622"/>
+      <c r="K52" s="623"/>
+      <c r="L52" s="623"/>
+      <c r="M52" s="624"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="582"/>
-      <c r="B53" s="583"/>
-      <c r="C53" s="583"/>
-      <c r="D53" s="583"/>
-      <c r="E53" s="584"/>
+      <c r="A53" s="648"/>
+      <c r="B53" s="649"/>
+      <c r="C53" s="649"/>
+      <c r="D53" s="649"/>
+      <c r="E53" s="650"/>
       <c r="F53" s="58"/>
-      <c r="G53" s="575"/>
-      <c r="H53" s="576"/>
-      <c r="I53" s="577"/>
-      <c r="J53" s="559"/>
-      <c r="K53" s="560"/>
-      <c r="L53" s="560"/>
-      <c r="M53" s="561"/>
+      <c r="G53" s="641"/>
+      <c r="H53" s="642"/>
+      <c r="I53" s="643"/>
+      <c r="J53" s="622"/>
+      <c r="K53" s="623"/>
+      <c r="L53" s="623"/>
+      <c r="M53" s="624"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="578"/>
-      <c r="B54" s="579"/>
-      <c r="C54" s="580"/>
-      <c r="D54" s="580"/>
-      <c r="E54" s="581"/>
+      <c r="A54" s="644"/>
+      <c r="B54" s="645"/>
+      <c r="C54" s="646"/>
+      <c r="D54" s="646"/>
+      <c r="E54" s="647"/>
       <c r="F54" s="173"/>
-      <c r="G54" s="562"/>
-      <c r="H54" s="563"/>
-      <c r="I54" s="564"/>
-      <c r="J54" s="559"/>
-      <c r="K54" s="560"/>
-      <c r="L54" s="560"/>
-      <c r="M54" s="561"/>
+      <c r="G54" s="626"/>
+      <c r="H54" s="627"/>
+      <c r="I54" s="628"/>
+      <c r="J54" s="622"/>
+      <c r="K54" s="623"/>
+      <c r="L54" s="623"/>
+      <c r="M54" s="624"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="546" t="s">
+      <c r="A55" s="639" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="547"/>
-      <c r="C55" s="587" t="s">
+      <c r="B55" s="640"/>
+      <c r="C55" s="653" t="s">
         <v>374</v>
       </c>
-      <c r="D55" s="587"/>
-      <c r="E55" s="587"/>
-      <c r="F55" s="587"/>
-      <c r="G55" s="587"/>
-      <c r="H55" s="587"/>
+      <c r="D55" s="653"/>
+      <c r="E55" s="653"/>
+      <c r="F55" s="653"/>
+      <c r="G55" s="653"/>
+      <c r="H55" s="653"/>
       <c r="I55" s="202"/>
-      <c r="J55" s="560"/>
-      <c r="K55" s="560"/>
-      <c r="L55" s="560"/>
-      <c r="M55" s="561"/>
+      <c r="J55" s="623"/>
+      <c r="K55" s="623"/>
+      <c r="L55" s="623"/>
+      <c r="M55" s="624"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="60"/>
-      <c r="C56" s="588"/>
-      <c r="D56" s="588"/>
-      <c r="E56" s="588"/>
-      <c r="F56" s="588"/>
-      <c r="G56" s="588"/>
-      <c r="H56" s="588"/>
+      <c r="C56" s="654"/>
+      <c r="D56" s="654"/>
+      <c r="E56" s="654"/>
+      <c r="F56" s="654"/>
+      <c r="G56" s="654"/>
+      <c r="H56" s="654"/>
       <c r="I56" s="203"/>
       <c r="J56" s="172"/>
-      <c r="K56" s="528" t="s">
+      <c r="K56" s="625" t="s">
         <v>66</v>
       </c>
-      <c r="L56" s="528"/>
+      <c r="L56" s="625"/>
       <c r="M56" s="147"/>
     </row>
     <row r="57" spans="1:14" s="142" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59"/>
       <c r="B57" s="60"/>
-      <c r="C57" s="588"/>
-      <c r="D57" s="588"/>
-      <c r="E57" s="588"/>
-      <c r="F57" s="588"/>
-      <c r="G57" s="588"/>
-      <c r="H57" s="588"/>
+      <c r="C57" s="654"/>
+      <c r="D57" s="654"/>
+      <c r="E57" s="654"/>
+      <c r="F57" s="654"/>
+      <c r="G57" s="654"/>
+      <c r="H57" s="654"/>
       <c r="I57" s="203"/>
-      <c r="J57" s="528"/>
-      <c r="K57" s="528"/>
-      <c r="L57" s="528"/>
-      <c r="M57" s="529"/>
+      <c r="J57" s="625"/>
+      <c r="K57" s="625"/>
+      <c r="L57" s="625"/>
+      <c r="M57" s="669"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="145"/>
@@ -17275,8 +17289,8 @@
       <c r="H58" s="204"/>
       <c r="I58" s="205"/>
       <c r="J58" s="149"/>
-      <c r="K58" s="613"/>
-      <c r="L58" s="614"/>
+      <c r="K58" s="605"/>
+      <c r="L58" s="606"/>
       <c r="M58" s="150"/>
     </row>
     <row r="59" spans="1:14" s="142" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17290,112 +17304,112 @@
       <c r="H59" s="144"/>
       <c r="I59" s="144"/>
       <c r="J59" s="149"/>
-      <c r="K59" s="615"/>
-      <c r="L59" s="616"/>
+      <c r="K59" s="607"/>
+      <c r="L59" s="608"/>
       <c r="M59" s="150"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="61"/>
-      <c r="B60" s="635" t="s">
+      <c r="B60" s="557" t="s">
         <v>373</v>
       </c>
-      <c r="C60" s="636"/>
-      <c r="D60" s="637"/>
+      <c r="C60" s="558"/>
+      <c r="D60" s="559"/>
       <c r="E60" s="62"/>
-      <c r="F60" s="626"/>
-      <c r="G60" s="627"/>
-      <c r="H60" s="627"/>
-      <c r="I60" s="628"/>
+      <c r="F60" s="548"/>
+      <c r="G60" s="549"/>
+      <c r="H60" s="549"/>
+      <c r="I60" s="550"/>
       <c r="J60" s="149"/>
-      <c r="K60" s="615"/>
-      <c r="L60" s="616"/>
+      <c r="K60" s="607"/>
+      <c r="L60" s="608"/>
       <c r="M60" s="63"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="61"/>
-      <c r="B61" s="619" t="s">
+      <c r="B61" s="611" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="620"/>
+      <c r="C61" s="612"/>
       <c r="D61" s="116"/>
       <c r="E61" s="62"/>
-      <c r="F61" s="629"/>
-      <c r="G61" s="630"/>
-      <c r="H61" s="630"/>
-      <c r="I61" s="631"/>
+      <c r="F61" s="551"/>
+      <c r="G61" s="552"/>
+      <c r="H61" s="552"/>
+      <c r="I61" s="553"/>
       <c r="J61" s="149"/>
-      <c r="K61" s="615"/>
-      <c r="L61" s="616"/>
+      <c r="K61" s="607"/>
+      <c r="L61" s="608"/>
       <c r="M61" s="63"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="61"/>
-      <c r="B62" s="607" t="s">
+      <c r="B62" s="600" t="s">
         <v>366</v>
       </c>
-      <c r="C62" s="608"/>
-      <c r="D62" s="611"/>
+      <c r="C62" s="601"/>
+      <c r="D62" s="560"/>
       <c r="E62" s="62"/>
-      <c r="F62" s="632"/>
-      <c r="G62" s="633"/>
-      <c r="H62" s="633"/>
-      <c r="I62" s="634"/>
+      <c r="F62" s="554"/>
+      <c r="G62" s="555"/>
+      <c r="H62" s="555"/>
+      <c r="I62" s="556"/>
       <c r="J62" s="149"/>
-      <c r="K62" s="615"/>
-      <c r="L62" s="616"/>
+      <c r="K62" s="607"/>
+      <c r="L62" s="608"/>
       <c r="M62" s="63"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="61"/>
-      <c r="B63" s="621"/>
-      <c r="C63" s="622"/>
-      <c r="D63" s="638"/>
+      <c r="B63" s="613"/>
+      <c r="C63" s="614"/>
+      <c r="D63" s="561"/>
       <c r="E63" s="62"/>
-      <c r="F63" s="639" t="s">
+      <c r="F63" s="562" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="640"/>
-      <c r="H63" s="640"/>
-      <c r="I63" s="641"/>
+      <c r="G63" s="563"/>
+      <c r="H63" s="563"/>
+      <c r="I63" s="564"/>
       <c r="J63" s="149"/>
-      <c r="K63" s="615"/>
-      <c r="L63" s="616"/>
+      <c r="K63" s="607"/>
+      <c r="L63" s="608"/>
       <c r="M63" s="63"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="61"/>
-      <c r="B64" s="607" t="s">
+      <c r="B64" s="600" t="s">
         <v>365</v>
       </c>
-      <c r="C64" s="608"/>
-      <c r="D64" s="611"/>
+      <c r="C64" s="601"/>
+      <c r="D64" s="560"/>
       <c r="E64" s="62"/>
       <c r="F64" s="64"/>
       <c r="G64" s="152"/>
       <c r="H64" s="192"/>
       <c r="I64" s="153"/>
       <c r="J64" s="65"/>
-      <c r="K64" s="617"/>
-      <c r="L64" s="618"/>
+      <c r="K64" s="609"/>
+      <c r="L64" s="610"/>
       <c r="M64" s="63"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
-      <c r="B65" s="609"/>
-      <c r="C65" s="610"/>
-      <c r="D65" s="612"/>
+      <c r="B65" s="602"/>
+      <c r="C65" s="603"/>
+      <c r="D65" s="604"/>
       <c r="E65" s="62"/>
-      <c r="F65" s="604" t="s">
+      <c r="F65" s="597" t="s">
         <v>86</v>
       </c>
-      <c r="G65" s="605"/>
-      <c r="H65" s="605"/>
-      <c r="I65" s="606"/>
+      <c r="G65" s="598"/>
+      <c r="H65" s="598"/>
+      <c r="I65" s="599"/>
       <c r="J65" s="65"/>
-      <c r="K65" s="602" t="s">
+      <c r="K65" s="595" t="s">
         <v>88</v>
       </c>
-      <c r="L65" s="603"/>
+      <c r="L65" s="596"/>
       <c r="M65" s="63"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17414,32 +17428,32 @@
       <c r="M66" s="71"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="599" t="s">
+      <c r="A67" s="592" t="s">
         <v>319</v>
       </c>
-      <c r="B67" s="600"/>
-      <c r="C67" s="600"/>
-      <c r="D67" s="600"/>
-      <c r="E67" s="600"/>
-      <c r="F67" s="600"/>
-      <c r="G67" s="600"/>
-      <c r="H67" s="600"/>
-      <c r="I67" s="600"/>
-      <c r="J67" s="600"/>
-      <c r="K67" s="600"/>
-      <c r="L67" s="600"/>
-      <c r="M67" s="601"/>
+      <c r="B67" s="593"/>
+      <c r="C67" s="593"/>
+      <c r="D67" s="593"/>
+      <c r="E67" s="593"/>
+      <c r="F67" s="593"/>
+      <c r="G67" s="593"/>
+      <c r="H67" s="593"/>
+      <c r="I67" s="593"/>
+      <c r="J67" s="593"/>
+      <c r="K67" s="593"/>
+      <c r="L67" s="593"/>
+      <c r="M67" s="594"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="61"/>
       <c r="B68" s="65"/>
       <c r="C68" s="72"/>
       <c r="D68" s="72"/>
-      <c r="E68" s="596"/>
-      <c r="F68" s="597"/>
-      <c r="G68" s="597"/>
-      <c r="H68" s="597"/>
-      <c r="I68" s="598"/>
+      <c r="E68" s="589"/>
+      <c r="F68" s="590"/>
+      <c r="G68" s="590"/>
+      <c r="H68" s="590"/>
+      <c r="I68" s="591"/>
       <c r="J68" s="117"/>
       <c r="K68" s="117"/>
       <c r="L68" s="73"/>
@@ -17450,13 +17464,13 @@
       <c r="B69" s="65"/>
       <c r="C69" s="193"/>
       <c r="D69" s="193"/>
-      <c r="E69" s="593" t="s">
+      <c r="E69" s="586" t="s">
         <v>87</v>
       </c>
-      <c r="F69" s="594"/>
-      <c r="G69" s="594"/>
-      <c r="H69" s="594"/>
-      <c r="I69" s="595"/>
+      <c r="F69" s="587"/>
+      <c r="G69" s="587"/>
+      <c r="H69" s="587"/>
+      <c r="I69" s="588"/>
       <c r="J69" s="119"/>
       <c r="K69" s="118"/>
       <c r="L69" s="74"/>
@@ -17478,21 +17492,21 @@
       <c r="M70" s="77"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="592" t="s">
+      <c r="A71" s="585" t="s">
         <v>359</v>
       </c>
-      <c r="B71" s="592"/>
-      <c r="C71" s="592"/>
-      <c r="D71" s="592"/>
-      <c r="E71" s="592"/>
-      <c r="F71" s="592"/>
-      <c r="G71" s="592"/>
-      <c r="H71" s="592"/>
-      <c r="I71" s="592"/>
-      <c r="J71" s="592"/>
-      <c r="K71" s="592"/>
-      <c r="L71" s="592"/>
-      <c r="M71" s="592"/>
+      <c r="B71" s="585"/>
+      <c r="C71" s="585"/>
+      <c r="D71" s="585"/>
+      <c r="E71" s="585"/>
+      <c r="F71" s="585"/>
+      <c r="G71" s="585"/>
+      <c r="H71" s="585"/>
+      <c r="I71" s="585"/>
+      <c r="J71" s="585"/>
+      <c r="K71" s="585"/>
+      <c r="L71" s="585"/>
+      <c r="M71" s="585"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -17505,6 +17519,75 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="85">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="J50:M55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="F60:I62"/>
@@ -17521,75 +17604,6 @@
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="C23:F26"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="J50:M55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
